--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_175.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_175.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Rodeway Inn &amp; Suites New Orleans</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>New Orleans</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>117</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5145</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70127</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70127</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_175.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_175.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="724">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,2078 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r621246526-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>60864</t>
+  </si>
+  <si>
+    <t>93123</t>
+  </si>
+  <si>
+    <t>621246526</t>
+  </si>
+  <si>
+    <t>10/02/2018</t>
+  </si>
+  <si>
+    <t>Absolutely horrible</t>
+  </si>
+  <si>
+    <t>This was by far the worst hotel I've ever been to! The staff opened my friend's packages she got delivered and took stuff! The entire hotel from the check in to the rooms smelt awful! The beds were an absolute mess, they were the dirtiest, even after the front desk staff came ans changed the sheets the "clean" ones where disgusting! The toilet wasnt working, the ironing board was broken, the area didnt feel safe. The manager was not willing to offer any satisfaction for the package, he simply put the blame on her and UPS.</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r620960580-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>620960580</t>
+  </si>
+  <si>
+    <t>10/01/2018</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>The worst customer service I’ve ever received. Arrived to perfectly made beds with DIRTY sheets. The phone in the room didn’t work so I had to walk to reception. The girl wasn’t too concerned nor apologetic. The room was dirty. The manager was no help at all. I wouldn’t stay here even if it were free. Forget about ordering packages and have the reception receive it if you’re out. They tamper with your packages and stuff turn up missing. This place is absolutely horrible!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r587635866-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>587635866</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Best value!</t>
+  </si>
+  <si>
+    <t>We had a family reunion at NOLA and we had a great time at this place! Room is very clean, staff is friendly and the price is unbeatable! We believe the accomodations fit what we paid for. Everything worked in our room. The furniture in our room was old, but the room was clean. The staff was nice and helpful. The hotel is close to the interstate and very convenient to get into the city. We will definitely stay here during next time in New Orleans!</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r587003568-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>587003568</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Ehh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The last time we came to this place it was under different ownership. They had a nice breakfast and all. This time it was terrible. All they had for breakfast was toast, cereal and muffins. Our room smelled of mildew and we discovered it was because our a/c was leaking. There is was even someone else earring left there, so clearly it wasn’t cleaned thoroughly. There was also a cockroach in the toilet to boot. The room was cheap and served the purpose of sleep and shower. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r584213923-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>584213923</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Stay away!!</t>
+  </si>
+  <si>
+    <t>They charged us double and we spent a week trying to get in touch with the manager, Mr.James. We called and called, physically went back to the hotel only to be told he's not there and we'll have him call you when he gets back in. He never did. We called some more and got in touch with Joy, who refused to let us speak to him and bounced back and forth from us to him with our conversation leaving us on hold. Eventually when everything was said and done they said they could do nothing about it. They stole from us. Also, the hotel is in a very poor location, the rooms are disgusting, and the service is terrible. Save your time, money, and happiness and stay away from this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>RDManager_RES, Guest Relations Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>They charged us double and we spent a week trying to get in touch with the manager, Mr.James. We called and called, physically went back to the hotel only to be told he's not there and we'll have him call you when he gets back in. He never did. We called some more and got in touch with Joy, who refused to let us speak to him and bounced back and forth from us to him with our conversation leaving us on hold. Eventually when everything was said and done they said they could do nothing about it. They stole from us. Also, the hotel is in a very poor location, the rooms are disgusting, and the service is terrible. Save your time, money, and happiness and stay away from this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r584144834-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>584144834</t>
+  </si>
+  <si>
+    <t>Good Deal for a Day or Two</t>
+  </si>
+  <si>
+    <t>We had a good experience. The price was good and our room was clean. I'm not sure what some of these reviewers were expecting from this place, but for us we just needed a place to stay that was cheap and close to the quarter. For what we paid we got a good deal, just know this place is not the Hilton.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r581228650-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>581228650</t>
+  </si>
+  <si>
+    <t>05/19/2018</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!</t>
+  </si>
+  <si>
+    <t>Checked in at the hotel on 5/5/18 for 2 nights for a cruise leaving on Monday, 05/07/18.  Got to the room to find the door cracked open.  The door would NOT close or latch or lock.  Reported to the front desk.  The employee told us the maintenance man would be coming to the room to check the door.  He never showed up.  We went to the front desk again.  The employee was unconcerned and told us they were booked and could not change our room. The maintenance man had left for the day.  Our credit card was charged and no refund was given.  NOT a place to stay if you want security!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in at the hotel on 5/5/18 for 2 nights for a cruise leaving on Monday, 05/07/18.  Got to the room to find the door cracked open.  The door would NOT close or latch or lock.  Reported to the front desk.  The employee told us the maintenance man would be coming to the room to check the door.  He never showed up.  We went to the front desk again.  The employee was unconcerned and told us they were booked and could not change our room. The maintenance man had left for the day.  Our credit card was charged and no refund was given.  NOT a place to stay if you want security!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r574040408-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>574040408</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Proceed With Caution​</t>
+  </si>
+  <si>
+    <t>Unfortunately,it didn't work out. We stayed one night, leaving as soon as we felt safe to open the door &amp; pack car. Room was dirty,musty and had roaches. The "safety lock" had just one wobbly screw. Apparently, it must have already been kicked in.  People were yelling/fighting/drinking all night. Good Luck!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r565917242-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>565917242</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>This hotel was definitely disappointing, but I'm not surprised. For a bargain hotel, I got what I paid for. The room phone didn't work, the outlets were iffy, there were maybe three lights in the whole room. It's 20 minutes away from the French Quarter, about a $40 uuber. There's not a lot nearby besides a meat market and a Walgreens. At the end of the day, the bed was comfortable and clean and the air conditioning worked. If I absolutely couldn't find anything else, I'd stay here again. Otherwise, I'd rather pay an etra $100 a night than come back to this location.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r553748636-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>553748636</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Place to sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here 2 nights before leaving on a cruise.  Check in was smooth. Beds are very comfortable, slept great. But the noise from outside early morning was bad! Cheap and place to sleep. Nothing special. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r553241056-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>553241056</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>WE WERE KISSED IN AND KISSED OUT!</t>
+  </si>
+  <si>
+    <t>The staff here are extremely personable and accommodating. Our room was very nice and clean and we enjoyed it.The only part we had problems with was the AC/Heat unit made a loud noise every time it came on which made it difficult to sleep through.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r552495194-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>552495194</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>It's a hotel.  In a good location.  That's it.</t>
+  </si>
+  <si>
+    <t>If not for this location, it wouldn't be a very nice place.  The fact is that it's right where it is makes it reasonable.  Breakfast is just cold cereal and maybe cinnamon buns but I didn't see the cinnamon buns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r551543809-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>551543809</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Tired and old</t>
+  </si>
+  <si>
+    <t>On checking in, the reception area (which was the breakfast area as well) had an overwhelming smell of disinfectant and toilet smell which wasn't very nice. We booked a non smoking room but the 1st room we were given smelt horrendously of stale smoke. The next room we were given still smelt of smoke but not to the same degree as the 1st. The handle on the bathroom door was falling off and there were cigarette burns on one of our beds bedding. The room itself was ok but clearly needs LOTS of attention. The beds were comfortable so that was a bonus! Our 2nd night there had drunk loud people shouting outside our door thinking it funny to swim in the pool in below freezing conditions... not the hotels fault but it went on for a while. When booking for a family of 4 you would expect 4 towels but both days we had to ask for 2 more, the 2nd morning I had to fetch 2 more from house keeping, I was a bit grossed out to find a long black hair on me after drying myself with the so called clean towels. Breakfast was basic but ok... bread/2 cereals/pastry/muffins/orange juice/coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>On checking in, the reception area (which was the breakfast area as well) had an overwhelming smell of disinfectant and toilet smell which wasn't very nice. We booked a non smoking room but the 1st room we were given smelt horrendously of stale smoke. The next room we were given still smelt of smoke but not to the same degree as the 1st. The handle on the bathroom door was falling off and there were cigarette burns on one of our beds bedding. The room itself was ok but clearly needs LOTS of attention. The beds were comfortable so that was a bonus! Our 2nd night there had drunk loud people shouting outside our door thinking it funny to swim in the pool in below freezing conditions... not the hotels fault but it went on for a while. When booking for a family of 4 you would expect 4 towels but both days we had to ask for 2 more, the 2nd morning I had to fetch 2 more from house keeping, I was a bit grossed out to find a long black hair on me after drying myself with the so called clean towels. Breakfast was basic but ok... bread/2 cereals/pastry/muffins/orange juice/coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r524210079-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>524210079</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>The photo's show a much cleaner motel than it is in reality. It is in a terrible area and "Lakefront" is a joke.Address given was not recognised by GPS so spent an hour trying to find it. Evening staff unfriendly, internet intermittent, items missing from breakfast and staff didn't seem to care, I mean toast without butter?</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r483659222-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>483659222</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Enjoyable and Cheap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you are traveling on a budget this is not a bad option. Cheapest place we found that we were comfortable staying at. Parking is free, there is wifi. The rooms are clean but furniture is old. We used this motel as we were traveling across the southeast for two weeks stayed at a number of economy motels. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r482935877-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>482935877</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Bad start to my 30th birthday</t>
+  </si>
+  <si>
+    <t>We booked the king size suite with a sofa bed to accommodate four people. We check into the room and the smell was awful! We try to pull out the sofa bed it was broken and held up by string with no sheets over the dirty mattress. We ask to be switched to another room just tying to be accommodated for our stay but the staff were rude and did not want to change us. The kept trying to tell us the room is only supposed to sleep two people but online it clearly says 2-4 people. They also said the "sofa bed" is not supposed to be used for a sofa but only for a chair or couch. What?! It's called a sofa bed for a reason. The bathroom had some sort of bug in it. We were only there for 20mins and got our refund and went to stay somewhere else. Do Not stay at this PLACE, you will be highly disappointed!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked the king size suite with a sofa bed to accommodate four people. We check into the room and the smell was awful! We try to pull out the sofa bed it was broken and held up by string with no sheets over the dirty mattress. We ask to be switched to another room just tying to be accommodated for our stay but the staff were rude and did not want to change us. The kept trying to tell us the room is only supposed to sleep two people but online it clearly says 2-4 people. They also said the "sofa bed" is not supposed to be used for a sofa but only for a chair or couch. What?! It's called a sofa bed for a reason. The bathroom had some sort of bug in it. We were only there for 20mins and got our refund and went to stay somewhere else. Do Not stay at this PLACE, you will be highly disappointed!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r480119477-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>480119477</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Very good for its price</t>
+  </si>
+  <si>
+    <t>The room was big, had a fridge, conditioner, bath tub that was quite clean, all the rooms are in the inner side of the hotel so excellent silence. The hotel is pretty far from the downtown do be ready for $15-20 for a lift to the town or have your own vehicle. The hotel also offers a free breakfast and a free wi-fi. The wi-fi is really weak and the breakfast is very modest.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r477422914-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>477422914</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Unforgettable stay</t>
+  </si>
+  <si>
+    <t>Myself and my family stayed here for 3 nights.  I would not recommend this motel.  Although the staff are friendly and the owners keep the grounds clean the rooms leave a lot to be desired. They are reasonably sized with two double beds but that is where the pluses end. They are outdated, damp smelling and the sheets,bedding and towels (although they may be clean?) have stains on them.  The 'continental breakfast' was the same thing: white bread for toasting, mini muffins from Walmart, and sugary cereal. The coffee was ok and was probably the best thing there. I know it's only April but the pool was closed to all but the local ducks. The local shop has a lot to offer but please be warned there are a lot of undesirables hanging around the area.  My best advise is: spend a few extra pounds/dollars and stay somewhere decent.  Sorry Rodeway,  I know you are trying but maybe modernise to attract a better clientele. MoreShow less</t>
+  </si>
+  <si>
+    <t>Myself and my family stayed here for 3 nights.  I would not recommend this motel.  Although the staff are friendly and the owners keep the grounds clean the rooms leave a lot to be desired. They are reasonably sized with two double beds but that is where the pluses end. They are outdated, damp smelling and the sheets,bedding and towels (although they may be clean?) have stains on them.  The 'continental breakfast' was the same thing: white bread for toasting, mini muffins from Walmart, and sugary cereal. The coffee was ok and was probably the best thing there. I know it's only April but the pool was closed to all but the local ducks. The local shop has a lot to offer but please be warned there are a lot of undesirables hanging around the area.  My best advise is: spend a few extra pounds/dollars and stay somewhere decent.  Sorry Rodeway,  I know you are trying but maybe modernise to attract a better clientele. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r472537089-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>472537089</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>very nice place</t>
+  </si>
+  <si>
+    <t>march 17 thru 19,my wife had great time here, nice, clean, big room. the frist night was a free night a little problem, but all fix quickley.quite room, quite area.two chairs,close to ww 2 musuem, to eating places, would stay here again.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r467088060-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>467088060</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Not a great place to stay</t>
+  </si>
+  <si>
+    <t>The rooms all smelt of smoke, we asked to be moved twice and each time the smell was worst. Towels very thin, rooms not very clean, chips out of the walls, paint missing, in each of the bathrooms something not working.  Unfortunately we had two rooms for two nights and had we not pre paid would definitely would have moved on.  There were people shouting outside at all hours so sleeping was very difficult.We had a fabulous time in New Orleans but staying here spoilt the experience.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r463868907-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>463868907</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>One day Mardi Gras trip</t>
+  </si>
+  <si>
+    <t>I am originally from Louisiana but have moved to Vegas. I have been too Nola for Mardi Gras many many times and often looked for the cheapest best located hotel to stay one maybe two nights.  I was very impressed with the room for the price. It was clean and everything worked properly, bed was not horrible and there was space for an air mattress if needed. The shower was upgraded as well. Only complaint would be the distance to get to the French quarter, about a $25-$30 uber/lyft ride. Also, the check in time is 3pm and they will not have the from ready before then! Overall satisfied for the price I paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am originally from Louisiana but have moved to Vegas. I have been too Nola for Mardi Gras many many times and often looked for the cheapest best located hotel to stay one maybe two nights.  I was very impressed with the room for the price. It was clean and everything worked properly, bed was not horrible and there was space for an air mattress if needed. The shower was upgraded as well. Only complaint would be the distance to get to the French quarter, about a $25-$30 uber/lyft ride. Also, the check in time is 3pm and they will not have the from ready before then! Overall satisfied for the price I paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r449356815-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>449356815</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Above average</t>
+  </si>
+  <si>
+    <t>Location wise:  The location of this hotel is just 10 minutes drive away from French Quarter, which is a plus.  Not too far.Safety:  Feel not too safe because we saw few different group of people quarrel.Cleanliness:  Quite clean and comfortable.With the price, I am satisfied with the quality of the hotel, except safety concern.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r435456202-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>435456202</t>
+  </si>
+  <si>
+    <t>11/07/2016</t>
+  </si>
+  <si>
+    <t>My Birthday Getaway...Oct21-23 2016</t>
+  </si>
+  <si>
+    <t>This hotel was really nice! The hotel staff was really nice! I felt very comfortable and safe. The French Quarter was only 8 miles away! I really enjoyed the nearby stores and restaurants! Yes! I would definitely recommend this hotel!!!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r428754114-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>428754114</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Decent with a few exceptions!</t>
+  </si>
+  <si>
+    <t>Let me start with the pros. For us, the location was ideal! I did not want to stay inside New Orleans. This is right off the Interstate and not too far from New Orleans. Perfect! Decent pricing, free parking, free wifi, free continental breakfast (we didn't actually eat it to comment on its quality though), a quiet hotel. Rooms were clean.Here are my 3 biggest complaints:1) My husband would recommend coffee pots be placed in each room. This was the only hotel we've ever stayed in that did not offer coffee pots and complimentary coffee packets in the room.2) Room did need a little work. Mostly nice but the door knob on the bathroom door was broken. Not a huge deal to us but I could see others hating that detail.3) My biggest complaint...I tried calling the front desk from our room multiple times to ask about check out procedures. No one would ever answer! So I tried calling the hotel # from my cell phone and still never received an answer! Finally just left room keys on the dresser there and hoped that was correct. Kind of odd to have a front desk staff that won't answer the phone! I would have given the hotel a 4 if not for this.MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start with the pros. For us, the location was ideal! I did not want to stay inside New Orleans. This is right off the Interstate and not too far from New Orleans. Perfect! Decent pricing, free parking, free wifi, free continental breakfast (we didn't actually eat it to comment on its quality though), a quiet hotel. Rooms were clean.Here are my 3 biggest complaints:1) My husband would recommend coffee pots be placed in each room. This was the only hotel we've ever stayed in that did not offer coffee pots and complimentary coffee packets in the room.2) Room did need a little work. Mostly nice but the door knob on the bathroom door was broken. Not a huge deal to us but I could see others hating that detail.3) My biggest complaint...I tried calling the front desk from our room multiple times to ask about check out procedures. No one would ever answer! So I tried calling the hotel # from my cell phone and still never received an answer! Finally just left room keys on the dresser there and hoped that was correct. Kind of odd to have a front desk staff that won't answer the phone! I would have given the hotel a 4 if not for this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r424444730-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>424444730</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Nice and quite place, rooms had been repainted and redone, bed's were very soft, bathroom was clean and new towels pool was clean, could do better on the continental breakfast. would recommend if you want to stay out of New Orleans and a quite place</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r419281990-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>419281990</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Pool closed</t>
+  </si>
+  <si>
+    <t>We have choosen the place because of the pool (temp. was about 100°F). When we arrived pool was "out of order". Next day we asked the Manager when the pool would be open again. Later on we found the pool "closed". Manager was very unfriendly and not very helpful. The pool was working, they only did not want it to be used (for what reason ever...). Anyway we got some money back, the place was clean and we went swimming somewhere else.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r380570201-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>380570201</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Weekend trip</t>
+  </si>
+  <si>
+    <t>The room rates were very reasonable during memorial day weekend. There were similar places in the city that charged double for a similar room. A few reviews complained about the facilities being dirty or things not working properly. I'm not sure what their expectations are, but the rooms were clean. Everything worked in our room. The furniture in the room was old, but we didn't have any issues with it. If you are not too nitpicky, and are looking for a deal this is a place to consider. If you are one of those people looking to book a 200 room for 50 dollars, you will leave this place disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>The room rates were very reasonable during memorial day weekend. There were similar places in the city that charged double for a similar room. A few reviews complained about the facilities being dirty or things not working properly. I'm not sure what their expectations are, but the rooms were clean. Everything worked in our room. The furniture in the room was old, but we didn't have any issues with it. If you are not too nitpicky, and are looking for a deal this is a place to consider. If you are one of those people looking to book a 200 room for 50 dollars, you will leave this place disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r379373223-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>379373223</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>First off, people this is not the Hilton. This place is a good stay for the price. The staff was friendly. The management keeps the grounds clean, they sweep the parking lot every morning. The room was clean, had microwave, mini-fridge, hairdryer, bed was decent, water temp and pressure was good, and the A/C worked well. I never walk bare foot in any hotel, come on do you expect them to shampoo the carpet every day? I did not see any sketchy people around and felt safe in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r373502989-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>373502989</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Positively THE WORST</t>
+  </si>
+  <si>
+    <t>Stayed here one night while in town for a Tulane University graduation. Owner/Manager is the rudest, most unprofessional person in existence. Bathtub did not drain, toilet leaked, carpet disgusting, overall sanitary conditions. I brought this to the attention of the manager/owner and he asked me to go to another hotel. He was threatening and just plain nasty. Please do not ever stay here for any reason. I left and went down the road to the Stay Express Inn and for less money had a very pleasant two nights in a clean hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r369264102-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>369264102</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>Beware, this is cheap but not clean.</t>
+  </si>
+  <si>
+    <t>On first arriving at the reception it look nice. I am always worried when the receptionist sit behind big glass walls with small slit to get paper through but we where let in to our pre booked room. The smell was bad but we left the door open. There was only 1 light working so we had to call reception who replaced 1 table lamp and we now have 2. We wanted to put some drinks in the fridge but it was so filthy and frosted up so we had to report it to reception but we ended up the next day with cleaning it out ourselves. The microwave oven was beyond cleaning and had to be replaced. The towels in the bathroom had not been replaced from the last guest so we had to request new one for which we are still waiting on day 2.
+This is a cheap hotel but it could be cleaned up. Beware of the food in the neighbouring shops. Behind the hotel is Sams Meat. It is a delicatessen and food mart but everything they have goes in the deep frier in frozen condition making it uneatable. We purchased a bottle of wine and found that it had gone of and was like vinegar. Next day I took it back and the refusal of a replacement was that because it was open they could do nothing. Very rude attitude and a place to...On first arriving at the reception it look nice. I am always worried when the receptionist sit behind big glass walls with small slit to get paper through but we where let in to our pre booked room. The smell was bad but we left the door open. There was only 1 light working so we had to call reception who replaced 1 table lamp and we now have 2. We wanted to put some drinks in the fridge but it was so filthy and frosted up so we had to report it to reception but we ended up the next day with cleaning it out ourselves. The microwave oven was beyond cleaning and had to be replaced. The towels in the bathroom had not been replaced from the last guest so we had to request new one for which we are still waiting on day 2.This is a cheap hotel but it could be cleaned up. Beware of the food in the neighbouring shops. Behind the hotel is Sams Meat. It is a delicatessen and food mart but everything they have goes in the deep frier in frozen condition making it uneatable. We purchased a bottle of wine and found that it had gone of and was like vinegar. Next day I took it back and the refusal of a replacement was that because it was open they could do nothing. Very rude attitude and a place to avoid at all cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>On first arriving at the reception it look nice. I am always worried when the receptionist sit behind big glass walls with small slit to get paper through but we where let in to our pre booked room. The smell was bad but we left the door open. There was only 1 light working so we had to call reception who replaced 1 table lamp and we now have 2. We wanted to put some drinks in the fridge but it was so filthy and frosted up so we had to report it to reception but we ended up the next day with cleaning it out ourselves. The microwave oven was beyond cleaning and had to be replaced. The towels in the bathroom had not been replaced from the last guest so we had to request new one for which we are still waiting on day 2.
+This is a cheap hotel but it could be cleaned up. Beware of the food in the neighbouring shops. Behind the hotel is Sams Meat. It is a delicatessen and food mart but everything they have goes in the deep frier in frozen condition making it uneatable. We purchased a bottle of wine and found that it had gone of and was like vinegar. Next day I took it back and the refusal of a replacement was that because it was open they could do nothing. Very rude attitude and a place to...On first arriving at the reception it look nice. I am always worried when the receptionist sit behind big glass walls with small slit to get paper through but we where let in to our pre booked room. The smell was bad but we left the door open. There was only 1 light working so we had to call reception who replaced 1 table lamp and we now have 2. We wanted to put some drinks in the fridge but it was so filthy and frosted up so we had to report it to reception but we ended up the next day with cleaning it out ourselves. The microwave oven was beyond cleaning and had to be replaced. The towels in the bathroom had not been replaced from the last guest so we had to request new one for which we are still waiting on day 2.This is a cheap hotel but it could be cleaned up. Beware of the food in the neighbouring shops. Behind the hotel is Sams Meat. It is a delicatessen and food mart but everything they have goes in the deep frier in frozen condition making it uneatable. We purchased a bottle of wine and found that it had gone of and was like vinegar. Next day I took it back and the refusal of a replacement was that because it was open they could do nothing. Very rude attitude and a place to avoid at all cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r365910339-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>365910339</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>French Quarter Festival</t>
+  </si>
+  <si>
+    <t>We had reservations at another property across town. That hotel managed to screw our reservation and instead of having 3 rooms they had 2.Of course they were booked 100%. We had them call a number of hotels but everyone else was booked. After what seems like an eternity, we negoiated a free night voucher. We decided to take our chances and drove around. We called around a number of places and came across this hotel. We didn't want to stay here because we read the reviews, butbeggars can't be choosers. We didn't find the place to be bad as what some of the reviews made it out to be - beds were comfortable, service was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We had reservations at another property across town. That hotel managed to screw our reservation and instead of having 3 rooms they had 2.Of course they were booked 100%. We had them call a number of hotels but everyone else was booked. After what seems like an eternity, we negoiated a free night voucher. We decided to take our chances and drove around. We called around a number of places and came across this hotel. We didn't want to stay here because we read the reviews, butbeggars can't be choosers. We didn't find the place to be bad as what some of the reviews made it out to be - beds were comfortable, service was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r357274269-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>357274269</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>If you're ok with sharing towels</t>
+  </si>
+  <si>
+    <t>I booked this hotel/motel for 4 people in the room and told them that we would not arrive until about 1am. We had to check in through an outside window opening because they had completely closed the registration building. It was windy and cold and I didn't feel safe especially since the drunks were coming in from celebrating St. Patrick's Day and the area looked questionable to me. 
+When we got to our room I noticed that we only had 2 sets of towels so I called and asked if we could get at least another set (we drove over 10hrs from St. Louis and would have loved to take a shower) and was told that they don't have anymore towels and that I would have to wait until around 10am when the housekeepers get in. This was unacceptable since we had a 10am appointment with a university and had several more appointments throughout that day. I called around to find another place for us to stay and was very disappointed to find out that most places were all booked, too far out of the way or they were at least $220....well, we ended up staying.  The next morning around 9am I went to the front and asked them for towels and was given several of the large hand towels to use in place of a dry towel (I did get face towels also). I was told that they would...I booked this hotel/motel for 4 people in the room and told them that we would not arrive until about 1am. We had to check in through an outside window opening because they had completely closed the registration building. It was windy and cold and I didn't feel safe especially since the drunks were coming in from celebrating St. Patrick's Day and the area looked questionable to me. When we got to our room I noticed that we only had 2 sets of towels so I called and asked if we could get at least another set (we drove over 10hrs from St. Louis and would have loved to take a shower) and was told that they don't have anymore towels and that I would have to wait until around 10am when the housekeepers get in. This was unacceptable since we had a 10am appointment with a university and had several more appointments throughout that day. I called around to find another place for us to stay and was very disappointed to find out that most places were all booked, too far out of the way or they were at least $220....well, we ended up staying.  The next morning around 9am I went to the front and asked them for towels and was given several of the large hand towels to use in place of a dry towel (I did get face towels also). I was told that they would bring the dry towels to our room as soon as they had more. That was the towels, now to the floor in the bathroom area.  I don't know what they clean the floor with but I slipped on it several times.  When I mentioned this to the ladies they brought by more towels that could be placed on the floor until they could clean the room.  When we got back our room was cleaned, we had enough towels and the floor was no longer slippery.The beds were comfortable and the room was clean. I requested a room with a fridge and I did get it. The room needs more light for a female maybe not for males.I asked for a $3-$5 credit for the towel situation and was told no but he would email the manager about it.  Upon check out I asked a worker who was the manager and found out that the man that I was going back and forth with about the credit WAS THE MANAGER.  I never did get that credit.  My family talked me out of reversing the charges for our stay with my credit card company.  Dishonesty, poor customer service and lies is the reason that I would not recommend this place to anyone.  If you don't have a problem with sharing towels, you may not have a problem with this hotel/motel.  I believe that being told that this is not a full service hotel after the fact (rooms are only going to have 2 sets of towels) doesn't work for me since our reservations were for 4.  I PLACED OUR RESERVATION BY PHONE, NOT ON-LINE and no one made me aware of this.  Breakfast wasn't worth a crap. How do you run out of milk when you serve cereal and mini muffins? They had coffee but no tea (it's a good thing that I had my own). They also had apples and white bread that you can toast.I guess we should travel with our own towels, toilet paper, and try not to forget any of your toiletries.  I choose Ridgeway Inn &amp; Suites because it's under the CHOICE umbrella.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I booked this hotel/motel for 4 people in the room and told them that we would not arrive until about 1am. We had to check in through an outside window opening because they had completely closed the registration building. It was windy and cold and I didn't feel safe especially since the drunks were coming in from celebrating St. Patrick's Day and the area looked questionable to me. 
+When we got to our room I noticed that we only had 2 sets of towels so I called and asked if we could get at least another set (we drove over 10hrs from St. Louis and would have loved to take a shower) and was told that they don't have anymore towels and that I would have to wait until around 10am when the housekeepers get in. This was unacceptable since we had a 10am appointment with a university and had several more appointments throughout that day. I called around to find another place for us to stay and was very disappointed to find out that most places were all booked, too far out of the way or they were at least $220....well, we ended up staying.  The next morning around 9am I went to the front and asked them for towels and was given several of the large hand towels to use in place of a dry towel (I did get face towels also). I was told that they would...I booked this hotel/motel for 4 people in the room and told them that we would not arrive until about 1am. We had to check in through an outside window opening because they had completely closed the registration building. It was windy and cold and I didn't feel safe especially since the drunks were coming in from celebrating St. Patrick's Day and the area looked questionable to me. When we got to our room I noticed that we only had 2 sets of towels so I called and asked if we could get at least another set (we drove over 10hrs from St. Louis and would have loved to take a shower) and was told that they don't have anymore towels and that I would have to wait until around 10am when the housekeepers get in. This was unacceptable since we had a 10am appointment with a university and had several more appointments throughout that day. I called around to find another place for us to stay and was very disappointed to find out that most places were all booked, too far out of the way or they were at least $220....well, we ended up staying.  The next morning around 9am I went to the front and asked them for towels and was given several of the large hand towels to use in place of a dry towel (I did get face towels also). I was told that they would bring the dry towels to our room as soon as they had more. That was the towels, now to the floor in the bathroom area.  I don't know what they clean the floor with but I slipped on it several times.  When I mentioned this to the ladies they brought by more towels that could be placed on the floor until they could clean the room.  When we got back our room was cleaned, we had enough towels and the floor was no longer slippery.The beds were comfortable and the room was clean. I requested a room with a fridge and I did get it. The room needs more light for a female maybe not for males.I asked for a $3-$5 credit for the towel situation and was told no but he would email the manager about it.  Upon check out I asked a worker who was the manager and found out that the man that I was going back and forth with about the credit WAS THE MANAGER.  I never did get that credit.  My family talked me out of reversing the charges for our stay with my credit card company.  Dishonesty, poor customer service and lies is the reason that I would not recommend this place to anyone.  If you don't have a problem with sharing towels, you may not have a problem with this hotel/motel.  I believe that being told that this is not a full service hotel after the fact (rooms are only going to have 2 sets of towels) doesn't work for me since our reservations were for 4.  I PLACED OUR RESERVATION BY PHONE, NOT ON-LINE and no one made me aware of this.  Breakfast wasn't worth a crap. How do you run out of milk when you serve cereal and mini muffins? They had coffee but no tea (it's a good thing that I had my own). They also had apples and white bread that you can toast.I guess we should travel with our own towels, toilet paper, and try not to forget any of your toiletries.  I choose Ridgeway Inn &amp; Suites because it's under the CHOICE umbrella.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r347626157-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>347626157</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>Mardi Gras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great value for the room. Some places in New Orleans were charging upwards of 200 dollars. We booked this room for around 100, which is a steal. The rooms were clean, but a bit old, but who cares we didn't stay in the room much. The hotel offers free parking, which is also good because other hotels charged 30+ for parking. The internet was spotty, but manageable. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r332368216-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>332368216</t>
+  </si>
+  <si>
+    <t>12/12/2015</t>
+  </si>
+  <si>
+    <t>Driving to Florida</t>
+  </si>
+  <si>
+    <t>Road trip from the SLC to Florida. We stayed at a number of these budget motels. It was quiet and clean. We  needed sleep and once we rested it was back on the road. It was a shame we didn't have time to check out New Orleans, but we had to get to Miami.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r324663485-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>324663485</t>
+  </si>
+  <si>
+    <t>11/05/2015</t>
+  </si>
+  <si>
+    <t>Basic. Cheap. On Budget Halloween Trip</t>
+  </si>
+  <si>
+    <t>The hotel itself was pretty nice for the price. The check in process was the quickest I think I ever experienced. Although the staff could of been a bit friendlier especially about that all their room was recently made non-smoking. Online it clearly ask if you would like a smoking or non smoking room so when she said it with an attitude like I just should of known that, It was a little frustrating. Other than that, the room was clean, nice flat screen tv, the bathroom was clean and nice. I am a budget queen! lol so for only $3 a piece for my boyfriend and I we took the bus all day everywhere we wanted. It took about 30 minutes on the bus to get to downtown NOLA . The hotel was literally steps away from bus stops for 3 different routes! Which was great because if you missed one bus, you can walk like 10 steps and catch another one going the same way. Convenient stores that sell liquor. huge plus for me. lol   Oh yeah the "breakfast" is a joke. I mean it was like muffins, water coffee (no taste of coffee at all), and water. They seriously need to make their breakfast better. Overall, It was a good stay. and I'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The hotel itself was pretty nice for the price. The check in process was the quickest I think I ever experienced. Although the staff could of been a bit friendlier especially about that all their room was recently made non-smoking. Online it clearly ask if you would like a smoking or non smoking room so when she said it with an attitude like I just should of known that, It was a little frustrating. Other than that, the room was clean, nice flat screen tv, the bathroom was clean and nice. I am a budget queen! lol so for only $3 a piece for my boyfriend and I we took the bus all day everywhere we wanted. It took about 30 minutes on the bus to get to downtown NOLA . The hotel was literally steps away from bus stops for 3 different routes! Which was great because if you missed one bus, you can walk like 10 steps and catch another one going the same way. Convenient stores that sell liquor. huge plus for me. lol   Oh yeah the "breakfast" is a joke. I mean it was like muffins, water coffee (no taste of coffee at all), and water. They seriously need to make their breakfast better. Overall, It was a good stay. and I'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r323774810-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>323774810</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Halloween Trip</t>
+  </si>
+  <si>
+    <t>Just completed a trip down to New Orleans for all of the Halloween festivities during the weekend. The motel is about a 15-minute ride to DT/Bourbon St. which is not that bad especially for the price paid. Rooms were decent with no issues with the A/C or bathroom. The only thing that was truly lacking was the "complimentary" breakfast that only offered slices of bread, coffee, and Krispe Kream Donuts. Other than that, especially for a trip for four guys, this place was a great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r317464209-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>317464209</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>No Frills, Value for money</t>
+  </si>
+  <si>
+    <t>In my opinion, this place is a no-frills, value for money, economy hotel. As someone who prefers to spent less on accommodation so that I have more when I'm downtown, this place fit my requirements rather nicely.Clean beds, clean toilets, hot shower, free parking and stable wifi. Basically this place has all that I needed. Breakfast comes as an added bonus, although its just muffins, cereal and coffee. What I appreciate the most is the lights they have at night, making the whole place pleasantly bright. Even when I checked in at 2 in the morning, the whole place was well lit.Maybe I am just easily pleased, but with the price, I prefer not to be too fussy. If I wanted a fancy hotel, I will be looking at those luxurious ones in French Quarter.MoreShow less</t>
+  </si>
+  <si>
+    <t>In my opinion, this place is a no-frills, value for money, economy hotel. As someone who prefers to spent less on accommodation so that I have more when I'm downtown, this place fit my requirements rather nicely.Clean beds, clean toilets, hot shower, free parking and stable wifi. Basically this place has all that I needed. Breakfast comes as an added bonus, although its just muffins, cereal and coffee. What I appreciate the most is the lights they have at night, making the whole place pleasantly bright. Even when I checked in at 2 in the morning, the whole place was well lit.Maybe I am just easily pleased, but with the price, I prefer not to be too fussy. If I wanted a fancy hotel, I will be looking at those luxurious ones in French Quarter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r317217308-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>317217308</t>
+  </si>
+  <si>
+    <t>10/08/2015</t>
+  </si>
+  <si>
+    <t>Good for one night stays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure what was going on during the weekend we were there. The city was full. We didn't have many options. We checked 4 hotels nearby and chose this one because we felt it was the cleanest, safest and cheapest out of the four. It's a budget motel, so there's nothing much other than a bed, the beds were clean and that's all we asked for. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r316857356-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>316857356</t>
+  </si>
+  <si>
+    <t>10/07/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not the best area but it was very clean and comfy specially for the price we paid. I would stay here again . It is gated however the gate was not closed at night . We had no problem with parking inside the gates, seem to be plenty in and around the hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r299266454-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>299266454</t>
+  </si>
+  <si>
+    <t>08/14/2015</t>
+  </si>
+  <si>
+    <t>Cheap, but far from airport</t>
+  </si>
+  <si>
+    <t>Traveled on a budget. The staff was friendly, rooms are clean, but no pool, no microwave and no fridge. For the price it's great, I did not find anything in the area around the price. Just be aware no fridges or microwaves in the room, was not a deal breaker but for some it definitely is. This place isn't for everyone, no restaurants nearby, not very convenient, however for me, someone who needed a cheap and clean place to stay one night it was good.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r297397069-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>297397069</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>A place to sleep</t>
+  </si>
+  <si>
+    <t>It is basic but good. Clean and staff were friendly. Breakfast is provided as well. I stayed for two nights and I did not have a problem with this hotel. You may need your own car as it is a bit far from Downtown.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r283509690-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>283509690</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Every hotel in town was booked or the price was more than I was willing to spend. I told the manager I would write a review for them if I had a positive experience and I am true to my word. The hotel is an older property. If you are looking for a place to stay overnight for a good price this is a viable option. If you are expecting a full-service or any service hotel, this is not the place for you. The stay itself was quiet, the rooms are clean. I do not have any complaints. They might want to improve the breakfast options, but I don't eat breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Every hotel in town was booked or the price was more than I was willing to spend. I told the manager I would write a review for them if I had a positive experience and I am true to my word. The hotel is an older property. If you are looking for a place to stay overnight for a good price this is a viable option. If you are expecting a full-service or any service hotel, this is not the place for you. The stay itself was quiet, the rooms are clean. I do not have any complaints. They might want to improve the breakfast options, but I don't eat breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r281040066-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>281040066</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>The room is comfortable and clean, bargain price, not as other reviews indicated any more</t>
+  </si>
+  <si>
+    <t>I book the bargain price and the room is comfortable and clean, after I check in, I look at the reviews, I am surprised how come reviews so bad here, then I asked the front desk, just turn out , they have changed the ownership and new management, just this year March 2015, so I am lucky have such good room and bargain price, it has free breakfast, I will come back again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r275145067-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>275145067</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Basic Stay</t>
+  </si>
+  <si>
+    <t>Clean room with a clean scent; if that is all you need, this is the place for you. The price is low for the area for a reason. We went to NOLA on a whim over Memorial Day weekend, and this was the closest hotel we found with decent reviews, so we took it. I do not regret it. The place is very clean and smells great! No smoke smell, no bugs, no shadey looking characters hanging about. The office doors were locked, so we were a little put off about the neighborhood, but everything was quiet; probably just a precaution for their workers. The linens are very cheap, everything is cheap for that matter; but, for the price, it isn't a bad deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Clean room with a clean scent; if that is all you need, this is the place for you. The price is low for the area for a reason. We went to NOLA on a whim over Memorial Day weekend, and this was the closest hotel we found with decent reviews, so we took it. I do not regret it. The place is very clean and smells great! No smoke smell, no bugs, no shadey looking characters hanging about. The office doors were locked, so we were a little put off about the neighborhood, but everything was quiet; probably just a precaution for their workers. The linens are very cheap, everything is cheap for that matter; but, for the price, it isn't a bad deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r272136442-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>272136442</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>Don't listen to the nay sayers. I'm glad I didn't. This is just your basic hotel. Rooms are nice and spacey and the breakfast is delicious. It's only about 20 minutes from downtown which is only a 20.00 cab ride. Its affordable and customer service is good so far!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r270557802-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>270557802</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r256968904-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>256968904</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Just go!</t>
+  </si>
+  <si>
+    <t>The rooms are clean, no odd smells, and are comfortable.  I experienced a slight internet issue at first. However, one quick call to the front desk, the person on the other end was very friendly and said they would take care of it.  Not even 5 minutes later, a follow up.  They offered to send someone to check connections.  I declined and insisted it was a speed issue.  My WiFi signal was excellent. The speed was about 1.2Mbps  They said OK.  I received another call not even 5 minutes later.  The guy (I'm guessing it was tech support) explained they had a power glitch and just rebooted system.  Within 5 minutes, the connection speed jumped to 7Mbps.  Problem solved!!  Customer service was excellent at check in, during stay, and on checkout.  Parking is off site, but only 2 minute walk.  Water was hot!  Room was quiet.  There are smoking rooms, however, not next door, on a different floor by themselves.Would definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>The rooms are clean, no odd smells, and are comfortable.  I experienced a slight internet issue at first. However, one quick call to the front desk, the person on the other end was very friendly and said they would take care of it.  Not even 5 minutes later, a follow up.  They offered to send someone to check connections.  I declined and insisted it was a speed issue.  My WiFi signal was excellent. The speed was about 1.2Mbps  They said OK.  I received another call not even 5 minutes later.  The guy (I'm guessing it was tech support) explained they had a power glitch and just rebooted system.  Within 5 minutes, the connection speed jumped to 7Mbps.  Problem solved!!  Customer service was excellent at check in, during stay, and on checkout.  Parking is off site, but only 2 minute walk.  Water was hot!  Room was quiet.  There are smoking rooms, however, not next door, on a different floor by themselves.Would definitely stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r246993922-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>246993922</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>DO NOT BOOK THIS HOTEL. WORST HOTEL IN MY LIFE!!!</t>
+  </si>
+  <si>
+    <t>First of all it is NOT a Quality Inn anymore. It is now called Roadway Inn. I booked this hotel trough Hotels.com (prepaid) and when we arrived they didn't have the reservation. I had to cancel the Hotels.com reservation and pay a new one in-site. It is a 15 minute car trip to New Orleans French Quarter (not close at all). The neighborhood where it is located is not nice at all, I would rather say it is unsafe. The rooms are very old and in bad shape. The bed sheets had holes on them. There were cockroaches in the bathroom. The phone in the room was death. The front desk service was terrible. I asked for more towels because we were a party of four and there were only two towels in the bathroom, they said to me that they didn't have more towels. One night we came in late to the hotel and there was not space in the parking lot. Overall it was a horrible experience. Without doubt the worst hotel I've ever stayed in my life.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>First of all it is NOT a Quality Inn anymore. It is now called Roadway Inn. I booked this hotel trough Hotels.com (prepaid) and when we arrived they didn't have the reservation. I had to cancel the Hotels.com reservation and pay a new one in-site. It is a 15 minute car trip to New Orleans French Quarter (not close at all). The neighborhood where it is located is not nice at all, I would rather say it is unsafe. The rooms are very old and in bad shape. The bed sheets had holes on them. There were cockroaches in the bathroom. The phone in the room was death. The front desk service was terrible. I asked for more towels because we were a party of four and there were only two towels in the bathroom, they said to me that they didn't have more towels. One night we came in late to the hotel and there was not space in the parking lot. Overall it was a horrible experience. Without doubt the worst hotel I've ever stayed in my life.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r246564636-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>246564636</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Friendly Helpful Staff</t>
+  </si>
+  <si>
+    <t>The staff at the newly renamed  Roadway Inn in New Orleans East was very nice and friendly and most accommodating to our needs the surrounding area is a little ruff looking but was fine the rooms need some renovations but were clean .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r237899248-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>237899248</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>NOT for families, perfect for me and my friends</t>
+  </si>
+  <si>
+    <t>Me and my friends stayed her for halloween. We noticed yes it is in a pretty poor area of town but I didn't feel unsafe. To be CLEAR I am a 23 year old female traveling with same aged 2 other girls. We paid a very low price for two nights and got better than we expected. Yes our room was kinda dirty and smelled funny, but nothing some spray couldn't cure. The beds were clean at least. The phone and toilet wouldn't flush on the first try, but we hardly stayed in the room so we didn't care. My expensive car didn't get broken in to, I didn't witness drug deals, although the smell of weed lingered in the air, but who cares about that, I didn't see any shady people, the front desk girl was nice, so all in all, don't bring your kids here for family trips, this is pretty much a place for people like me with no kids and realistic expectations.  You get what you pay for. I'd stay here again because I was left alone, it was completely booked yet I didn't hear anyone being loud, and I slept easy. The gas station in front of it sold all kinds of liquor so that was convenient for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my friends stayed her for halloween. We noticed yes it is in a pretty poor area of town but I didn't feel unsafe. To be CLEAR I am a 23 year old female traveling with same aged 2 other girls. We paid a very low price for two nights and got better than we expected. Yes our room was kinda dirty and smelled funny, but nothing some spray couldn't cure. The beds were clean at least. The phone and toilet wouldn't flush on the first try, but we hardly stayed in the room so we didn't care. My expensive car didn't get broken in to, I didn't witness drug deals, although the smell of weed lingered in the air, but who cares about that, I didn't see any shady people, the front desk girl was nice, so all in all, don't bring your kids here for family trips, this is pretty much a place for people like me with no kids and realistic expectations.  You get what you pay for. I'd stay here again because I was left alone, it was completely booked yet I didn't hear anyone being loud, and I slept easy. The gas station in front of it sold all kinds of liquor so that was convenient for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r220757555-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>220757555</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>no "quality" at quality inn</t>
+  </si>
+  <si>
+    <t>The other reviewers aren't lying about the pimps,ho's &amp; weed!!! unfortunately its real and i would not bring my family here.i can't believe the owner/manager lets this go on. on the other hand, the girls working the desk are friendly and helpful. but i guess they turn a blind eye to the activities going on in the parking lot. my room was nice and clean, no complaints there. its the individuals in the parking lot that shock me. they really need to have security here to keep the riffraff out!!!</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r219972529-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>219972529</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>No Gunfire at least</t>
+  </si>
+  <si>
+    <t>The staff was the only nice thing about this hotel, the rooms looked old, not well taken care of. I was woke up twice during the night because of wanna be gangsters with their pants halfway to the knees playing that gangsta rap music loudly, in hindsight I'm glad my windows did not open, because I was going to holler at them, probably would have gotten shot. There is an automatic security gate, which they NEED to use, as well as posting sighs about noise and a security guard in the parking lot to enforce the rules. I will NOT be back here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r216755837-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>216755837</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>dirty, ghetto and rude</t>
+  </si>
+  <si>
+    <t>I stayed for one night, booked with my choice privileges membership. The tub was dirty! Like, literally a ring around the tub. Usually when you walk into a hotel room, the cool air is there to welcome you. My room was soooo hot when i walked in, I was sweating! Then, the AC didnt have a vent. So the only thing getting cool in the room was the curtains. My bf had to put his shoe on top of the vent so the air would blow out instead of up. Ghetto. 
+Then, I was under the impression that with Choice Rewards, you receive a late (2pm) checkout. I even asked about it when I checked in and the young lady said she would put it on my reservation. NOT! Housekeeping came banging on the door, even trying to come in when I'm asking them to wait. I'm glad the latch was on because I was not ready! Then the Front Desk Agent came shortly after; I asked about my late check out and she said "Oh we don't do that". So I asked if I could get until 12:30 (It was about 11:45), she said yes. Housekeeping came banging again at 12:20 telling me I have to get out!  She knocked 2 more times between then and the agreed upon 12:30 checkout time. It took everything out of me not to cuss these people out because I could not BELIEVE...I stayed for one night, booked with my choice privileges membership. The tub was dirty! Like, literally a ring around the tub. Usually when you walk into a hotel room, the cool air is there to welcome you. My room was soooo hot when i walked in, I was sweating! Then, the AC didnt have a vent. So the only thing getting cool in the room was the curtains. My bf had to put his shoe on top of the vent so the air would blow out instead of up. Ghetto. Then, I was under the impression that with Choice Rewards, you receive a late (2pm) checkout. I even asked about it when I checked in and the young lady said she would put it on my reservation. NOT! Housekeeping came banging on the door, even trying to come in when I'm asking them to wait. I'm glad the latch was on because I was not ready! Then the Front Desk Agent came shortly after; I asked about my late check out and she said "Oh we don't do that". So I asked if I could get until 12:30 (It was about 11:45), she said yes. Housekeeping came banging again at 12:20 telling me I have to get out!  She knocked 2 more times between then and the agreed upon 12:30 checkout time. It took everything out of me not to cuss these people out because I could not BELIEVE the treatment! They were just rude. It was ridiculous. On my way out, I saw another front desk person wearing a satin cap to work with terribly chewed edges, Like really? Comb your hair for work. This place just all around sucked. The service was horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I stayed for one night, booked with my choice privileges membership. The tub was dirty! Like, literally a ring around the tub. Usually when you walk into a hotel room, the cool air is there to welcome you. My room was soooo hot when i walked in, I was sweating! Then, the AC didnt have a vent. So the only thing getting cool in the room was the curtains. My bf had to put his shoe on top of the vent so the air would blow out instead of up. Ghetto. 
+Then, I was under the impression that with Choice Rewards, you receive a late (2pm) checkout. I even asked about it when I checked in and the young lady said she would put it on my reservation. NOT! Housekeeping came banging on the door, even trying to come in when I'm asking them to wait. I'm glad the latch was on because I was not ready! Then the Front Desk Agent came shortly after; I asked about my late check out and she said "Oh we don't do that". So I asked if I could get until 12:30 (It was about 11:45), she said yes. Housekeeping came banging again at 12:20 telling me I have to get out!  She knocked 2 more times between then and the agreed upon 12:30 checkout time. It took everything out of me not to cuss these people out because I could not BELIEVE...I stayed for one night, booked with my choice privileges membership. The tub was dirty! Like, literally a ring around the tub. Usually when you walk into a hotel room, the cool air is there to welcome you. My room was soooo hot when i walked in, I was sweating! Then, the AC didnt have a vent. So the only thing getting cool in the room was the curtains. My bf had to put his shoe on top of the vent so the air would blow out instead of up. Ghetto. Then, I was under the impression that with Choice Rewards, you receive a late (2pm) checkout. I even asked about it when I checked in and the young lady said she would put it on my reservation. NOT! Housekeeping came banging on the door, even trying to come in when I'm asking them to wait. I'm glad the latch was on because I was not ready! Then the Front Desk Agent came shortly after; I asked about my late check out and she said "Oh we don't do that". So I asked if I could get until 12:30 (It was about 11:45), she said yes. Housekeeping came banging again at 12:20 telling me I have to get out!  She knocked 2 more times between then and the agreed upon 12:30 checkout time. It took everything out of me not to cuss these people out because I could not BELIEVE the treatment! They were just rude. It was ridiculous. On my way out, I saw another front desk person wearing a satin cap to work with terribly chewed edges, Like really? Comb your hair for work. This place just all around sucked. The service was horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r214838547-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>214838547</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Pimps, Hoes and Weed.....</t>
+  </si>
+  <si>
+    <t>This place is terrible.  We stayed here unfortunately during the Essence Fest over July 4th weekend.  We had a smoking room which smelled terrible.  The door knob to the closet was broken, floor was filled with dirt and cigarette holes and we had a spider in our bed.  During our stay we slept on top of the cover (thread bare) with our clothes on.  The smell of weed was penetrating through the walls and the prostitution business was in full swing.  DO NOT EVER STAY THERE.  THIS PLACE SHOULD NOT EVEN BE LISTED ON ANY SITE!  Also I went to the pool - WHY!!!  it was filthy - I may have caught a disease if I got in it.MoreShow less</t>
+  </si>
+  <si>
+    <t>This place is terrible.  We stayed here unfortunately during the Essence Fest over July 4th weekend.  We had a smoking room which smelled terrible.  The door knob to the closet was broken, floor was filled with dirt and cigarette holes and we had a spider in our bed.  During our stay we slept on top of the cover (thread bare) with our clothes on.  The smell of weed was penetrating through the walls and the prostitution business was in full swing.  DO NOT EVER STAY THERE.  THIS PLACE SHOULD NOT EVEN BE LISTED ON ANY SITE!  Also I went to the pool - WHY!!!  it was filthy - I may have caught a disease if I got in it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r207735999-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>207735999</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Nice, but I would not stay there again</t>
+  </si>
+  <si>
+    <t>I arrived at the hotel in the late night. Staff was nice - a quick check in. I asked for non-smoking room, but the room smelled of stale cigarettes. I was so tired I did not ask to change the room. However, I note that the room was fairly clean. The room was on the first floor so very noisy in the morning (music, cars, etc.). Breakfast not included hot food. Self-service disposable dishes.well.. the price was cheap!</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r206977378-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>206977378</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Quality Inn is not quality st all.</t>
+  </si>
+  <si>
+    <t>For the price I paid it's not worthed, it's smells and dirty and there are a lot of people hanging around outside, so intimidating. ...I won't be staying there when I go to New Orleans. .The reason why I gave two stars is the staff/front desk is very nice and friendly..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r204360554-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>204360554</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hookers and weed! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DONT STAY HERE! YOU WILL GET ROBBED! HOOKERS AMD PIMPS IN THE PREMISES. I had to switch rooms because the first room I was in had bugs that where jumping on my skin as soon as I walked in.  I walk out of my room to smell Marijuana and 2 hookers waiting by an Escalade with 2 pimps. I left with a full refund 5 mins later. If you value your life and your families do not stay here! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r201917765-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>201917765</t>
+  </si>
+  <si>
+    <t>04/20/2014</t>
+  </si>
+  <si>
+    <t>Staff pleasant, facilities dirty and sketchy area</t>
+  </si>
+  <si>
+    <t>Rug so dirty, my feet were black after crossing the room. Gap under door to exterior. Room not tended to by staff during three night stay. Duvet washed improperly, very lumpy in areas, bare in others. Desk Staff very nice and pleasant and noted deficits. Area has many abandoned homes from hurricane Katrina. Quiet at night.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r201274514-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>201274514</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Nasty, Unsafe, Disgusting</t>
+  </si>
+  <si>
+    <t>We stayed only 1 night reservation booked months in advance thru AARP (shame on AARP for recommending seniors and people with disabilities to this NASTY, UNSAFE PLACE!) The round table top fell off the base when I leaned on it to adjust the AC... Narrowly avoiding a very bad fall! After performing my usual Bedbug check, BOTH beds had enough DNA (in the form of hair,      biologicals and other filth) to keep a CSI (Crime Scene Investigator) busy for years! Telephone did not work when attempting to contact front desk for info on the location of the TV remote... (Was told that someone would come by later to fix the telephone... REALLY!) So I had to go to front desk to retrieve TV remote. Carpeting was dirty, smelly and grimy.  Had to sleep in chairs because our return flight was in the morning and the thought of sleeping in that bed made me sick to my stomach.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed only 1 night reservation booked months in advance thru AARP (shame on AARP for recommending seniors and people with disabilities to this NASTY, UNSAFE PLACE!) The round table top fell off the base when I leaned on it to adjust the AC... Narrowly avoiding a very bad fall! After performing my usual Bedbug check, BOTH beds had enough DNA (in the form of hair,      biologicals and other filth) to keep a CSI (Crime Scene Investigator) busy for years! Telephone did not work when attempting to contact front desk for info on the location of the TV remote... (Was told that someone would come by later to fix the telephone... REALLY!) So I had to go to front desk to retrieve TV remote. Carpeting was dirty, smelly and grimy.  Had to sleep in chairs because our return flight was in the morning and the thought of sleeping in that bed made me sick to my stomach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r199940951-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>199940951</t>
+  </si>
+  <si>
+    <t>04/04/2014</t>
+  </si>
+  <si>
+    <t>Simply FIND SOMEWHERE ELSE!!!</t>
+  </si>
+  <si>
+    <t>Me and my friend were in town for an event...we checked in on Friday night at about 11:30 we were given the room 243...we open the door and there were no sheets on the beds the drawers were pulled out from the wall and there was a huge square hole in the wall like they were doing repairs to the room...insulation was hanging out of the wall and plaster was all over the floor...when we went back to say we wanted a different room they gave us room 124. So I went and opened the door and there was already someone staying in the room!! So I went back and told the lady at the desk and she have us a suite...room 144...when I went to check this one...there was a guest staying in this one as well!!!! So the lady behind the counter came and check a couple of rooms and was trying to get in touch with her manager (which wasn't interested answering the phone)...we finally got room 133 a suite...it was empty but FILTHY! I was here with my friend and we are both guys, the suit had one bed and a pull out (that was broke)!!! The floors were nasty and the room smelled weird...I was not to thrilled of all the things going on in the neighborhood either...there seemed to be people living at the hotel that were not guests...not really a place one can...Me and my friend were in town for an event...we checked in on Friday night at about 11:30 we were given the room 243...we open the door and there were no sheets on the beds the drawers were pulled out from the wall and there was a huge square hole in the wall like they were doing repairs to the room...insulation was hanging out of the wall and plaster was all over the floor...when we went back to say we wanted a different room they gave us room 124. So I went and opened the door and there was already someone staying in the room!! So I went back and told the lady at the desk and she have us a suite...room 144...when I went to check this one...there was a guest staying in this one as well!!!! So the lady behind the counter came and check a couple of rooms and was trying to get in touch with her manager (which wasn't interested answering the phone)...we finally got room 133 a suite...it was empty but FILTHY! I was here with my friend and we are both guys, the suit had one bed and a pull out (that was broke)!!! The floors were nasty and the room smelled weird...I was not to thrilled of all the things going on in the neighborhood either...there seemed to be people living at the hotel that were not guests...not really a place one can feel safe at...looking to try to get a better room and survive one more night (everything else is booked up) but sure not gonna make it past that...MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my friend were in town for an event...we checked in on Friday night at about 11:30 we were given the room 243...we open the door and there were no sheets on the beds the drawers were pulled out from the wall and there was a huge square hole in the wall like they were doing repairs to the room...insulation was hanging out of the wall and plaster was all over the floor...when we went back to say we wanted a different room they gave us room 124. So I went and opened the door and there was already someone staying in the room!! So I went back and told the lady at the desk and she have us a suite...room 144...when I went to check this one...there was a guest staying in this one as well!!!! So the lady behind the counter came and check a couple of rooms and was trying to get in touch with her manager (which wasn't interested answering the phone)...we finally got room 133 a suite...it was empty but FILTHY! I was here with my friend and we are both guys, the suit had one bed and a pull out (that was broke)!!! The floors were nasty and the room smelled weird...I was not to thrilled of all the things going on in the neighborhood either...there seemed to be people living at the hotel that were not guests...not really a place one can...Me and my friend were in town for an event...we checked in on Friday night at about 11:30 we were given the room 243...we open the door and there were no sheets on the beds the drawers were pulled out from the wall and there was a huge square hole in the wall like they were doing repairs to the room...insulation was hanging out of the wall and plaster was all over the floor...when we went back to say we wanted a different room they gave us room 124. So I went and opened the door and there was already someone staying in the room!! So I went back and told the lady at the desk and she have us a suite...room 144...when I went to check this one...there was a guest staying in this one as well!!!! So the lady behind the counter came and check a couple of rooms and was trying to get in touch with her manager (which wasn't interested answering the phone)...we finally got room 133 a suite...it was empty but FILTHY! I was here with my friend and we are both guys, the suit had one bed and a pull out (that was broke)!!! The floors were nasty and the room smelled weird...I was not to thrilled of all the things going on in the neighborhood either...there seemed to be people living at the hotel that were not guests...not really a place one can feel safe at...looking to try to get a better room and survive one more night (everything else is booked up) but sure not gonna make it past that...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r199426619-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>199426619</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Dirty, dirty, dirty</t>
+  </si>
+  <si>
+    <t>DO NOT stay here. I should've read the reviews first but didn't. My daughter and I only stayed here because it was a pet friendly hotel and I wanted to rack up my Choice Hotel rewards. Won't do that again! From the moment we got in to the room our toilet would flush, the room felt very dirty, the tile floor in bath area was sticky, there were used dip packets laying on the floor by the bed, etc... we checked first thing in the morning and didn't stick around for breakfast. It was confusing trying to figure out how to get into the entrance.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r199422261-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>199422261</t>
+  </si>
+  <si>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t>My wife booked this hotel on hotels.com, it was supposed to come with fre breakfast and parking for our cruise,  she called the hotel directly, they said she would not get the free things booking through a third party. They told her to cancel and rebook with them. She canceled our reservation and she called them back. Their system was down for two days, when the system was up, they had no rooms. We then had to book it through American Airlines website. When we arrived to check in, they wanted to charge us $75.00 for the cruise parking. We went to the room and there was hair on the toilet,  the tub and all over the bathroom floor. It was filthy and disgusting. It was terrible.  It is also not in the best area. I suggest you stay somewhere else. MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife booked this hotel on hotels.com, it was supposed to come with fre breakfast and parking for our cruise,  she called the hotel directly, they said she would not get the free things booking through a third party. They told her to cancel and rebook with them. She canceled our reservation and she called them back. Their system was down for two days, when the system was up, they had no rooms. We then had to book it through American Airlines website. When we arrived to check in, they wanted to charge us $75.00 for the cruise parking. We went to the room and there was hair on the toilet,  the tub and all over the bathroom floor. It was filthy and disgusting. It was terrible.  It is also not in the best area. I suggest you stay somewhere else. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r198232257-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>198232257</t>
+  </si>
+  <si>
+    <t>03/21/2014</t>
+  </si>
+  <si>
+    <t>Awful!</t>
+  </si>
+  <si>
+    <t>We booked this hotel through Travelocity for $95, we were not not expecting much just a clean hotel room. When we arrived it was AWFUl! The room wasn't even cleaned, comforters were on the floor, and trash wasn't even taken out. If that wasn't bad enough, it is in an unsafe part of town. We were looking to stay somewhere out of New Orleans (French quarter) and this place was not it! We immediately asked for a refund and left. Do not stay here!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r197956072-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>197956072</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Suites Not for the Sweet...</t>
+  </si>
+  <si>
+    <t>Me and my family reserved two suites from March 10-16th. 2014 for spring break. Upon arriving to the Quality Inn and Suites in New Orleans East we almost missed the entry, it was like a short bumpy alley with welcoming grafitti on outside wall. When we enter the Suites there was stains on the furniture, the pullout sofa and the sitting chair in the bed area. ( Same on You Quality Inn ) Oh did I mention the the pullout sofa was broke and the carpet is in immediately need cleaning. I was very surpise that this "CHOICE" Hotel is in such bad of shape. The interior needs a hold new make over for all the rooms. Come on Quality Inn lets get on the good foot and call cooperate office for some assistance. If I was a worker there I would be plum embarrassed of this environment. Oh yea the other suite that we reseved was just as bad, again the sofa bed was broken. But we stayed the whole week and  just rolled with the punches. The housekeepers were nice and on their job until late in the evening and not to mention the Hotel was booked up the whole week. SURPISEDMoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my family reserved two suites from March 10-16th. 2014 for spring break. Upon arriving to the Quality Inn and Suites in New Orleans East we almost missed the entry, it was like a short bumpy alley with welcoming grafitti on outside wall. When we enter the Suites there was stains on the furniture, the pullout sofa and the sitting chair in the bed area. ( Same on You Quality Inn ) Oh did I mention the the pullout sofa was broke and the carpet is in immediately need cleaning. I was very surpise that this "CHOICE" Hotel is in such bad of shape. The interior needs a hold new make over for all the rooms. Come on Quality Inn lets get on the good foot and call cooperate office for some assistance. If I was a worker there I would be plum embarrassed of this environment. Oh yea the other suite that we reseved was just as bad, again the sofa bed was broken. But we stayed the whole week and  just rolled with the punches. The housekeepers were nice and on their job until late in the evening and not to mention the Hotel was booked up the whole week. SURPISEDMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r197470492-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>197470492</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Only if you are Desperate</t>
+  </si>
+  <si>
+    <t>I am always shocked when I discover a real dump carrying a respectable flag like Quality Inn.  We know these are budget motels but we expect something clean, decently maintained, and reasonably well run.  None of the above applies to this Quality Inn next to I-10 in New Orleans East.
+First of all the neighborhood is pretty dodgy; not exactly the ghetto but only one step above it.  Second, the property is an old exterior corridor motel that looks like a 1970s pedigree.  Most importantly, the owners are simply wringing the last dollar out of this place and doing only the minimum required to keep a license.  The furniture is torn, stained, and in my room, partly disfunctional.  The carpet is filthy; the HVAC unit smashed and the tub/shower doesn't drain well.
+Service is, surprisingly, reasonably friendly and efficient although the morning clerk had her two small squalling children behind the front desk with her.  
+In fairness, it has all the amenities they advertise, including a decent wi-fi connection and a passable breakfast.  There is a hair dryer and iron in the room, etc.  The pool is here but looks dirty.
+Bottom line: you will probably survive one night here but if your schedule allows you to continue on to a budget hotel in Slidell, keep going.  Come on, Choice Hotels.  Continuing to endorse and sell properties like this undermines your credibility and makes consumers shy away from the majority...I am always shocked when I discover a real dump carrying a respectable flag like Quality Inn.  We know these are budget motels but we expect something clean, decently maintained, and reasonably well run.  None of the above applies to this Quality Inn next to I-10 in New Orleans East.First of all the neighborhood is pretty dodgy; not exactly the ghetto but only one step above it.  Second, the property is an old exterior corridor motel that looks like a 1970s pedigree.  Most importantly, the owners are simply wringing the last dollar out of this place and doing only the minimum required to keep a license.  The furniture is torn, stained, and in my room, partly disfunctional.  The carpet is filthy; the HVAC unit smashed and the tub/shower doesn't drain well.Service is, surprisingly, reasonably friendly and efficient although the morning clerk had her two small squalling children behind the front desk with her.  In fairness, it has all the amenities they advertise, including a decent wi-fi connection and a passable breakfast.  There is a hair dryer and iron in the room, etc.  The pool is here but looks dirty.Bottom line: you will probably survive one night here but if your schedule allows you to continue on to a budget hotel in Slidell, keep going.  Come on, Choice Hotels.  Continuing to endorse and sell properties like this undermines your credibility and makes consumers shy away from the majority of the quite fine Quality Inns around the country.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am always shocked when I discover a real dump carrying a respectable flag like Quality Inn.  We know these are budget motels but we expect something clean, decently maintained, and reasonably well run.  None of the above applies to this Quality Inn next to I-10 in New Orleans East.
+First of all the neighborhood is pretty dodgy; not exactly the ghetto but only one step above it.  Second, the property is an old exterior corridor motel that looks like a 1970s pedigree.  Most importantly, the owners are simply wringing the last dollar out of this place and doing only the minimum required to keep a license.  The furniture is torn, stained, and in my room, partly disfunctional.  The carpet is filthy; the HVAC unit smashed and the tub/shower doesn't drain well.
+Service is, surprisingly, reasonably friendly and efficient although the morning clerk had her two small squalling children behind the front desk with her.  
+In fairness, it has all the amenities they advertise, including a decent wi-fi connection and a passable breakfast.  There is a hair dryer and iron in the room, etc.  The pool is here but looks dirty.
+Bottom line: you will probably survive one night here but if your schedule allows you to continue on to a budget hotel in Slidell, keep going.  Come on, Choice Hotels.  Continuing to endorse and sell properties like this undermines your credibility and makes consumers shy away from the majority...I am always shocked when I discover a real dump carrying a respectable flag like Quality Inn.  We know these are budget motels but we expect something clean, decently maintained, and reasonably well run.  None of the above applies to this Quality Inn next to I-10 in New Orleans East.First of all the neighborhood is pretty dodgy; not exactly the ghetto but only one step above it.  Second, the property is an old exterior corridor motel that looks like a 1970s pedigree.  Most importantly, the owners are simply wringing the last dollar out of this place and doing only the minimum required to keep a license.  The furniture is torn, stained, and in my room, partly disfunctional.  The carpet is filthy; the HVAC unit smashed and the tub/shower doesn't drain well.Service is, surprisingly, reasonably friendly and efficient although the morning clerk had her two small squalling children behind the front desk with her.  In fairness, it has all the amenities they advertise, including a decent wi-fi connection and a passable breakfast.  There is a hair dryer and iron in the room, etc.  The pool is here but looks dirty.Bottom line: you will probably survive one night here but if your schedule allows you to continue on to a budget hotel in Slidell, keep going.  Come on, Choice Hotels.  Continuing to endorse and sell properties like this undermines your credibility and makes consumers shy away from the majority of the quite fine Quality Inns around the country.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r196932929-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>196932929</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>AVOID!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Where do I begin?? Upon arrival, I could tell this was not a safe location. There was a lot of loud music and various people who I could tell were not guests of the hotel. When I went inside to check in, there were two people at the front desk. I stopped at the first person, who I assume was just there visiting, and was told to go to the next person. Someone came in behind me and was told to go to the next person as well. The person who checked me in was cordial and did advise me that there would be breakfast in the morning. 
+My cousin and I found our room in the middle of the action that was going on outside. We could tell there were regulars who "lived" there who looked at us like we did not belong. We hastily removed our belongings from the car and rushed to our room and we both responded with a resounding Oh, my gosh!!! We had a nonsmoking room that reeked of smoke. The carpet was well past it's prime and was so filthy that we made sure to keep our shoes on at all times. All of the doors were dirty as if housekeeping just acted as though they did not exist. The bedding was well worn and if course smelled of smoke. There were stains on the bathroom floor and walls with a dirty door....Where do I begin?? Upon arrival, I could tell this was not a safe location. There was a lot of loud music and various people who I could tell were not guests of the hotel. When I went inside to check in, there were two people at the front desk. I stopped at the first person, who I assume was just there visiting, and was told to go to the next person. Someone came in behind me and was told to go to the next person as well. The person who checked me in was cordial and did advise me that there would be breakfast in the morning. My cousin and I found our room in the middle of the action that was going on outside. We could tell there were regulars who "lived" there who looked at us like we did not belong. We hastily removed our belongings from the car and rushed to our room and we both responded with a resounding Oh, my gosh!!! We had a nonsmoking room that reeked of smoke. The carpet was well past it's prime and was so filthy that we made sure to keep our shoes on at all times. All of the doors were dirty as if housekeeping just acted as though they did not exist. The bedding was well worn and if course smelled of smoke. There were stains on the bathroom floor and walls with a dirty door. The micro fridge was non functioning. We remained in this room because it was Mardi Gras weekend and everywhere else was either booked or super expensive. We checked in after 6 and less than one hour after being there, a male voice knocked on the door yelling housekeeping. There were loud noises and shouting all night long. We were afraid to leave the next day with everyone wailing around outside. I checked the reviews on trip advisor soon after we checked in and situations similar to mine. One response from management mentioned that they installed a security fence around the perimeter. My cousin and I got a good laugh out of that. A security fence?? Really?? There was a fence that did not get used. Oh and I failed to mention that on the first morning I looked out the window and saw 3 police cars in front of our room. I asked one if the staff what was going on and they replied they had no idea?? Really??? You work here but the police are not going to let you know why they are there. I booked this room for two nights and started to check out after the first night. That first morning we took all of our stuff with us and spent part of the night sleeping in our car in a guarded parking lot downtown New Orleans. We eventually decided to go back to the hotel only to find that our parking spaces in front if the hotel had been taken by people who were not guests of the hotel. How do I know this?  Because the next morning, when were preparing to leave around seven that morning the spaces were empty. Also, remember the security fence, it was not locked when we returned that night. We saw other hotel guests rushing to get to their rooms too afraid of what might happen to them. Now, this is not my first time staying at a Quality Inn hotel but this experience was so bad that it may be my last. I'm a frequent traveler and to be honest I will probably overlook any listing for Quality Inn. I am thoroughly disappointed that this hotel is associated with your brand and you should be too. MoreShow less</t>
+  </si>
+  <si>
+    <t>Where do I begin?? Upon arrival, I could tell this was not a safe location. There was a lot of loud music and various people who I could tell were not guests of the hotel. When I went inside to check in, there were two people at the front desk. I stopped at the first person, who I assume was just there visiting, and was told to go to the next person. Someone came in behind me and was told to go to the next person as well. The person who checked me in was cordial and did advise me that there would be breakfast in the morning. 
+My cousin and I found our room in the middle of the action that was going on outside. We could tell there were regulars who "lived" there who looked at us like we did not belong. We hastily removed our belongings from the car and rushed to our room and we both responded with a resounding Oh, my gosh!!! We had a nonsmoking room that reeked of smoke. The carpet was well past it's prime and was so filthy that we made sure to keep our shoes on at all times. All of the doors were dirty as if housekeeping just acted as though they did not exist. The bedding was well worn and if course smelled of smoke. There were stains on the bathroom floor and walls with a dirty door....Where do I begin?? Upon arrival, I could tell this was not a safe location. There was a lot of loud music and various people who I could tell were not guests of the hotel. When I went inside to check in, there were two people at the front desk. I stopped at the first person, who I assume was just there visiting, and was told to go to the next person. Someone came in behind me and was told to go to the next person as well. The person who checked me in was cordial and did advise me that there would be breakfast in the morning. My cousin and I found our room in the middle of the action that was going on outside. We could tell there were regulars who "lived" there who looked at us like we did not belong. We hastily removed our belongings from the car and rushed to our room and we both responded with a resounding Oh, my gosh!!! We had a nonsmoking room that reeked of smoke. The carpet was well past it's prime and was so filthy that we made sure to keep our shoes on at all times. All of the doors were dirty as if housekeeping just acted as though they did not exist. The bedding was well worn and if course smelled of smoke. There were stains on the bathroom floor and walls with a dirty door. The micro fridge was non functioning. We remained in this room because it was Mardi Gras weekend and everywhere else was either booked or super expensive. We checked in after 6 and less than one hour after being there, a male voice knocked on the door yelling housekeeping. There were loud noises and shouting all night long. We were afraid to leave the next day with everyone wailing around outside. I checked the reviews on trip advisor soon after we checked in and situations similar to mine. One response from management mentioned that they installed a security fence around the perimeter. My cousin and I got a good laugh out of that. A security fence?? Really?? There was a fence that did not get used. Oh and I failed to mention that on the first morning I looked out the window and saw 3 police cars in front of our room. I asked one if the staff what was going on and they replied they had no idea?? Really??? You work here but the police are not going to let you know why they are there. I booked this room for two nights and started to check out after the first night. That first morning we took all of our stuff with us and spent part of the night sleeping in our car in a guarded parking lot downtown New Orleans. We eventually decided to go back to the hotel only to find that our parking spaces in front if the hotel had been taken by people who were not guests of the hotel. How do I know this?  Because the next morning, when were preparing to leave around seven that morning the spaces were empty. Also, remember the security fence, it was not locked when we returned that night. We saw other hotel guests rushing to get to their rooms too afraid of what might happen to them. Now, this is not my first time staying at a Quality Inn hotel but this experience was so bad that it may be my last. I'm a frequent traveler and to be honest I will probably overlook any listing for Quality Inn. I am thoroughly disappointed that this hotel is associated with your brand and you should be too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r190069756-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>190069756</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Road trip continues...</t>
+  </si>
+  <si>
+    <t>After leaving Dallas our next stop was New Orleans, although we arrived late in the evening the staff had everything ready for our rooms. It was an easy check-in and parking was just around the corner. The rooms were fantastic and it is easy to see why this property has been a Gold Award winner for so long. The staff were able to offer many suggestions and gave us easy directions to Bourbon St. We had a dinner at Pier 424 Seafood Market, food was good would try something different the next time. A few drinks and some crazy people later, including our cab ride listening to Montavani, thankfully a very short cab ride back. Look out for puddles in the Quarter they are deep and contain, well i'm not sure just try to avoid them. The Hotel is located in the heart of the city close to everything. Stanley Mascair, the GM and his staff are tops. Tell hi for me, we had a great time. Wish we had more time to visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>After leaving Dallas our next stop was New Orleans, although we arrived late in the evening the staff had everything ready for our rooms. It was an easy check-in and parking was just around the corner. The rooms were fantastic and it is easy to see why this property has been a Gold Award winner for so long. The staff were able to offer many suggestions and gave us easy directions to Bourbon St. We had a dinner at Pier 424 Seafood Market, food was good would try something different the next time. A few drinks and some crazy people later, including our cab ride listening to Montavani, thankfully a very short cab ride back. Look out for puddles in the Quarter they are deep and contain, well i'm not sure just try to avoid them. The Hotel is located in the heart of the city close to everything. Stanley Mascair, the GM and his staff are tops. Tell hi for me, we had a great time. Wish we had more time to visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r184380958-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>184380958</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>gave away our 8 rooms we had reserved</t>
+  </si>
+  <si>
+    <t>I made reservations for two of my inventory crews to stay there on a Saturday night and told them they would be checking in late. When my first crew got there at 10 pm they were told there were no reservations made for them and no rooms available. This cost our company several hundred more in lodging and a lot of wasted time plus putting our crew almost 2 hours away from their next job.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r181807148-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>181807148</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Thank you Mershawn!!!</t>
+  </si>
+  <si>
+    <t>After booking online via Choicehotels.com, The system double booked the room in error, I spoke with choice hotels customer service and they were unable to help due to a 24 hour cancellation policy, even though I had booked less then a minute ago. I called the hotel and was very angry and rude. The lady who answered was polite and respectful throughout my whole freak out. She corrected this double booking for me and was wonderful! Thank you MERSHAWN for being such a sweetheart and providing me with excellent customer service!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r179773285-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>179773285</t>
+  </si>
+  <si>
+    <t>10/04/2013</t>
+  </si>
+  <si>
+    <t>Service Charge $50/day on Your credit card</t>
+  </si>
+  <si>
+    <t>This location is an over priced MOTEL.  They automatically charge your debit &amp; credit card a security deposit for booking the rooms.  Additional charges where not listed on their website. It's almost been a month &amp; I still have charges pending.  I was told they would disappear on day 30.  That's fine if you have the funds, but if I would of put it on my Debit, my funds would of been held hostage for a month. When we arrived, it was during the opener of the NFL Falcons vs Saints &amp; there was a charter bus outside &amp; people driving up...with only 1 clerk at the desk!We were assigned a room, that did not have a working bathroom or air conditioner.  Needless to say, the requested microwave &amp; refrigerator was missing!!  I was thankful, I spent the majority of my time out of the area..cause those 2 days were awful.  I don't share roaches in my house, and I sure wasn't happy to find a roach in the bathroom.  Nor did I like the blood stain curtains.  Did I mention, there was only 1 working ice machine on the property?  You do not expect to pay $92/night and receive substandard treatment. Save your peace of mind and find another place to sleep!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Juan R, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded October 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2013</t>
+  </si>
+  <si>
+    <t>This location is an over priced MOTEL.  They automatically charge your debit &amp; credit card a security deposit for booking the rooms.  Additional charges where not listed on their website. It's almost been a month &amp; I still have charges pending.  I was told they would disappear on day 30.  That's fine if you have the funds, but if I would of put it on my Debit, my funds would of been held hostage for a month. When we arrived, it was during the opener of the NFL Falcons vs Saints &amp; there was a charter bus outside &amp; people driving up...with only 1 clerk at the desk!We were assigned a room, that did not have a working bathroom or air conditioner.  Needless to say, the requested microwave &amp; refrigerator was missing!!  I was thankful, I spent the majority of my time out of the area..cause those 2 days were awful.  I don't share roaches in my house, and I sure wasn't happy to find a roach in the bathroom.  Nor did I like the blood stain curtains.  Did I mention, there was only 1 working ice machine on the property?  You do not expect to pay $92/night and receive substandard treatment. Save your peace of mind and find another place to sleep!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r169402065-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>169402065</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Drive on, pay more, just SAD, zero care or management.</t>
+  </si>
+  <si>
+    <t>I am very positive and admit an easy and optimistic reviewer but this place should be demolished. Not one redeeming quality. First impression was a  decrepit  Wendy's huge sign down since Katrina. The parking lot and grounds looked like a combination gang hangout or jail yard. The bedroom lampshade torn, incorrect bulbs in sink fixtures, child art on bathroom door, careless repairs: paint overspray on shower, drill dust still on kick plate from long ago grab bar installation and sloppy caulking. OK one positive: the AC unit ran constantly drowning out the general population. We will skip breakfast and never return.MoreShow less</t>
+  </si>
+  <si>
+    <t>Juan R, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded August 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2013</t>
+  </si>
+  <si>
+    <t>I am very positive and admit an easy and optimistic reviewer but this place should be demolished. Not one redeeming quality. First impression was a  decrepit  Wendy's huge sign down since Katrina. The parking lot and grounds looked like a combination gang hangout or jail yard. The bedroom lampshade torn, incorrect bulbs in sink fixtures, child art on bathroom door, careless repairs: paint overspray on shower, drill dust still on kick plate from long ago grab bar installation and sloppy caulking. OK one positive: the AC unit ran constantly drowning out the general population. We will skip breakfast and never return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r165262386-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>165262386</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>Nice Family Trip</t>
+  </si>
+  <si>
+    <t>We took my son and my nephew here to celebrate the end of summer break. We stayed in the King suite (pool view). It has two separate rooms w/sofa sleeper. The only tub was a whirlpool tub (fantastic) located in the "master bed room". It had two bathrooms, the other was just a tub and a sink. The pool was a nice size. No elevators. Very clean!</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r164236825-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>164236825</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Absolutely loved the place!</t>
+  </si>
+  <si>
+    <t>Reading some guest reviews from previous guests, I was really afraid, prepared myself for the worst...However everything was a pleasent surprise about this place. Our room [138] a non-smoking king was very clean, everything worked in it, smelled good; loved the hot breakfast, free parking! The only interactions we had with two Front Desk clerks Chantalle [misspelled?] and Vincent and both of them was very helpful and kind above and beyond!! The only thing the location is a bit scary, but no any incident happened, although we were driving around a bit, plus came back to the hotel around 2ish [am] nightly. You really gotta be a major complainer to find fault with this placeMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Reading some guest reviews from previous guests, I was really afraid, prepared myself for the worst...However everything was a pleasent surprise about this place. Our room [138] a non-smoking king was very clean, everything worked in it, smelled good; loved the hot breakfast, free parking! The only interactions we had with two Front Desk clerks Chantalle [misspelled?] and Vincent and both of them was very helpful and kind above and beyond!! The only thing the location is a bit scary, but no any incident happened, although we were driving around a bit, plus came back to the hotel around 2ish [am] nightly. You really gotta be a major complainer to find fault with this placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r159616724-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>159616724</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>Rip Off s Thieves</t>
+  </si>
+  <si>
+    <t>The room stunk.We had to buy FreeBreeze to get rid of the smell.Bed and covers had cigarette burns and this was a non smoking room.The carpet was filthy.And PLEASE make sure you have everything before you leave because it will not be mailed to you.We accidently left our kindles and was told they were mailed.This was almost 2 weeks ago.You can't get a hold of any one in charge. The general manager who was suppose to have sent them can't be reached.  I will never stay at this motel again. I would rather stay the night in my car or under a bridge because these rooms do not measure up to even a cheap motel. I beg you please don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>The room stunk.We had to buy FreeBreeze to get rid of the smell.Bed and covers had cigarette burns and this was a non smoking room.The carpet was filthy.And PLEASE make sure you have everything before you leave because it will not be mailed to you.We accidently left our kindles and was told they were mailed.This was almost 2 weeks ago.You can't get a hold of any one in charge. The general manager who was suppose to have sent them can't be reached.  I will never stay at this motel again. I would rather stay the night in my car or under a bridge because these rooms do not measure up to even a cheap motel. I beg you please don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r157315135-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>157315135</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever!</t>
+  </si>
+  <si>
+    <t>Scary location to start off. The clerk was on drugs,  and couldn't even find our reservation. She asked my husband, "Are you sure your name isn't Gerald Dixson?" It isn't even close to that.We finally left and found a nice hotel in Metairie that was even cheaper. I would never recommend this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r152210453-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>152210453</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Neither Quality, nor Suite</t>
+  </si>
+  <si>
+    <t>Wow.  This was by far the scariest hotel I have ever stayed in.  There were definately rooms being used for illicit activity - mind you it was Mardi Gras time - and the carpets were the filthiest I have EVER SEEN! I refused to let my bare feet touch the ground.  The rooms are old and dark - the comfortor's questionable.  I would not have stayed at all except that my husband was with me - and armed.  The towels were skimpy little things - and there were no more when we asked for more.  We got "a" washcloth when we asked.  This hotel should not have cost more than $50 a night - truly a dive.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Wow.  This was by far the scariest hotel I have ever stayed in.  There were definately rooms being used for illicit activity - mind you it was Mardi Gras time - and the carpets were the filthiest I have EVER SEEN! I refused to let my bare feet touch the ground.  The rooms are old and dark - the comfortor's questionable.  I would not have stayed at all except that my husband was with me - and armed.  The towels were skimpy little things - and there were no more when we asked for more.  We got "a" washcloth when we asked.  This hotel should not have cost more than $50 a night - truly a dive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r151096719-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>151096719</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>DO NOT RECOMMEND!</t>
+  </si>
+  <si>
+    <t>I contacted this hotel because a large group of couples were coming for my 30th birthday celebration. Long story short I left messages with the staff, only when they did decide to answer the phone, and was told that management would contact me. On the third attempt I talked to management on a wednesday only to be told that he was clocking out in three minutes and he would call me on friday. At that point I told him that this has been going on for a week he then said I will call you when I get home only to never hear from him. Comfort Suites off Bullard cotacted me as soon as I left a message, had my rooms blocked and contract emailed in less than 24 hours, not to mention the stay was GREAT, staff was GREAT, food was GREAT. I am a choice priviledge member with early check-in and late check-out privilages now! I could'nt imagine what my stay would have been like here since the phone calls can't even be managed properly.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I contacted this hotel because a large group of couples were coming for my 30th birthday celebration. Long story short I left messages with the staff, only when they did decide to answer the phone, and was told that management would contact me. On the third attempt I talked to management on a wednesday only to be told that he was clocking out in three minutes and he would call me on friday. At that point I told him that this has been going on for a week he then said I will call you when I get home only to never hear from him. Comfort Suites off Bullard cotacted me as soon as I left a message, had my rooms blocked and contract emailed in less than 24 hours, not to mention the stay was GREAT, staff was GREAT, food was GREAT. I am a choice priviledge member with early check-in and late check-out privilages now! I could'nt imagine what my stay would have been like here since the phone calls can't even be managed properly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r145647920-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>145647920</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>Highway Motel Not For New Orleans Tourists</t>
+  </si>
+  <si>
+    <t>I booked this at the last minute due to hurricane sandy changing my travel plans. If I had more time I would not have stayed here simply because it is not tourist friendly in terms of getting into the heart of New Orleans if you are a tourist with no transport.As a highway motel this place is perfect for a one night stop right off the I 10 on your way where ever. The room (118) was fine except you can see that people eat in the rooms. The carpet is a litany of food stains and probably other stains. I had one roach visit, it didn't get a chance to call its mates. Otherwise everything else in the room worked.They supply a basic but filling breakfast which was welcome as the only bus into town close by runs every 45 minutes or so, and you are about an hour out of town.They advertise wi-fi but outside of the reception it is poor and in my room it was non existent.On the plus side the staff I met were polite and helpful. I arrived late i.e 1:30am and I was still checked in even though I was not on the system. Either their system or Booking.Com got it wrong.As emergency last minute accommodation it worked. Oh ja it cost me about $48 from the Louis Armstrong airport to this place - OUCH!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Quality504, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded January 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2013</t>
+  </si>
+  <si>
+    <t>I booked this at the last minute due to hurricane sandy changing my travel plans. If I had more time I would not have stayed here simply because it is not tourist friendly in terms of getting into the heart of New Orleans if you are a tourist with no transport.As a highway motel this place is perfect for a one night stop right off the I 10 on your way where ever. The room (118) was fine except you can see that people eat in the rooms. The carpet is a litany of food stains and probably other stains. I had one roach visit, it didn't get a chance to call its mates. Otherwise everything else in the room worked.They supply a basic but filling breakfast which was welcome as the only bus into town close by runs every 45 minutes or so, and you are about an hour out of town.They advertise wi-fi but outside of the reception it is poor and in my room it was non existent.On the plus side the staff I met were polite and helpful. I arrived late i.e 1:30am and I was still checked in even though I was not on the system. Either their system or Booking.Com got it wrong.As emergency last minute accommodation it worked. Oh ja it cost me about $48 from the Louis Armstrong airport to this place - OUCH!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r144670945-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>144670945</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Very poor</t>
+  </si>
+  <si>
+    <t>It was nearly the last free hotel that weekend. Now we know why. Located in a strange looking area near the interstate, it needed security guards at night, which points to obvious security problems in that area. The rooms looked worn down and not really clean. But the most terrible thing I discovered was bed bugs. I explained that problem to the stuff, but the only thing they did was changing the sheets there was no offer of a new room (ok, they were booked out) or at least a discount on the way too expensive price. Not a pleasant experience...MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Quality504, Owner at Rodeway Inn &amp; Suites, responded to this reviewResponded January 5, 2013</t>
+  </si>
+  <si>
+    <t>It was nearly the last free hotel that weekend. Now we know why. Located in a strange looking area near the interstate, it needed security guards at night, which points to obvious security problems in that area. The rooms looked worn down and not really clean. But the most terrible thing I discovered was bed bugs. I explained that problem to the stuff, but the only thing they did was changing the sheets there was no offer of a new room (ok, they were booked out) or at least a discount on the way too expensive price. Not a pleasant experience...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r144101950-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>144101950</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>BEWARE</t>
+  </si>
+  <si>
+    <t>First off, I thought this hotel was in Metairie, La. I checked in @ 1am on 10/26/12. The location looked scary. Rooms are exterior entrance, BAD thing, since prostitution was going on heavy there.  I also checked in my room and was exhaisted so i didnt say anything but the ac cover was completely off and it was sooo dirty, the toilet did not flush at all. it was not stopped up but it just Plain BROKE!! I asked for a late check out the next morning and the fd clerk told me I could have one since i was a choice privilege member, Housekeeper still came to knock on door, Once i told the housekeeper i had a late check out. she replied rudely "well, i wasnt told that" and i told her i called and instead of her checking with the front desk agent to see if she had told me that or not.  She told me that it was time to check out, and she wasnt told. I had a late check out.... Unless thats the only room left in New Orleans I definetely wouldnt advise this hotel to ANYONE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality504, Front Office Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded January 5, 2013</t>
+  </si>
+  <si>
+    <t>First off, I thought this hotel was in Metairie, La. I checked in @ 1am on 10/26/12. The location looked scary. Rooms are exterior entrance, BAD thing, since prostitution was going on heavy there.  I also checked in my room and was exhaisted so i didnt say anything but the ac cover was completely off and it was sooo dirty, the toilet did not flush at all. it was not stopped up but it just Plain BROKE!! I asked for a late check out the next morning and the fd clerk told me I could have one since i was a choice privilege member, Housekeeper still came to knock on door, Once i told the housekeeper i had a late check out. she replied rudely "well, i wasnt told that" and i told her i called and instead of her checking with the front desk agent to see if she had told me that or not.  She told me that it was time to check out, and she wasnt told. I had a late check out.... Unless thats the only room left in New Orleans I definetely wouldnt advise this hotel to ANYONE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r142926538-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>142926538</t>
+  </si>
+  <si>
+    <t>10/15/2012</t>
+  </si>
+  <si>
+    <t>Long Check in and no room one night!</t>
+  </si>
+  <si>
+    <t>First off, I want to say that this was my first time in New Orleans and I booked it on Hotwire.
+I got to the hotel around 2:00 pm or so, as said in my reservation to check in. I didn't get checked in till 3:30 pm because none of the rooms were cleaned and ready. Housekeeping issue apparently. Got the hotel room with the gracious Jasmine who checked me in. I had a room block of 5 rooms and none were ready, and I was there plus 30 other people at the same time were needing our rooms for the convention in town. 
+I don't know who worked on Sept 29th, 2012 around 9:30 pm, but I paid for 5 rooms for two nights. Some lady at the front desk (not Jasmine), checked out one of the rooms (bus driver's room) and sold it to another person. There was one room left that was not cleaned at all and was not sold, so the bus driver had to sleep in the bus for one night. When I knew about this, I was going to scream! Properly train your staff! Look at your reservations clearly and carefully before you check out people out of the wrong room and let someone stranded for one night in a bus. I would have opted to sleep in the bus and let the bus driver sleep in my room if I knew about it...First off, I want to say that this was my first time in New Orleans and I booked it on Hotwire.I got to the hotel around 2:00 pm or so, as said in my reservation to check in. I didn't get checked in till 3:30 pm because none of the rooms were cleaned and ready. Housekeeping issue apparently. Got the hotel room with the gracious Jasmine who checked me in. I had a room block of 5 rooms and none were ready, and I was there plus 30 other people at the same time were needing our rooms for the convention in town. I don't know who worked on Sept 29th, 2012 around 9:30 pm, but I paid for 5 rooms for two nights. Some lady at the front desk (not Jasmine), checked out one of the rooms (bus driver's room) and sold it to another person. There was one room left that was not cleaned at all and was not sold, so the bus driver had to sleep in the bus for one night. When I knew about this, I was going to scream! Properly train your staff! Look at your reservations clearly and carefully before you check out people out of the wrong room and let someone stranded for one night in a bus. I would have opted to sleep in the bus and let the bus driver sleep in my room if I knew about it earlier. Rooms were cleaned except for one room 132, complaints from my guests that not vacuumed and the sheets and blankets weren't even made. I will not be staying at this hotel unless i get comped on my next visit to New Orleans.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>First off, I want to say that this was my first time in New Orleans and I booked it on Hotwire.
+I got to the hotel around 2:00 pm or so, as said in my reservation to check in. I didn't get checked in till 3:30 pm because none of the rooms were cleaned and ready. Housekeeping issue apparently. Got the hotel room with the gracious Jasmine who checked me in. I had a room block of 5 rooms and none were ready, and I was there plus 30 other people at the same time were needing our rooms for the convention in town. 
+I don't know who worked on Sept 29th, 2012 around 9:30 pm, but I paid for 5 rooms for two nights. Some lady at the front desk (not Jasmine), checked out one of the rooms (bus driver's room) and sold it to another person. There was one room left that was not cleaned at all and was not sold, so the bus driver had to sleep in the bus for one night. When I knew about this, I was going to scream! Properly train your staff! Look at your reservations clearly and carefully before you check out people out of the wrong room and let someone stranded for one night in a bus. I would have opted to sleep in the bus and let the bus driver sleep in my room if I knew about it...First off, I want to say that this was my first time in New Orleans and I booked it on Hotwire.I got to the hotel around 2:00 pm or so, as said in my reservation to check in. I didn't get checked in till 3:30 pm because none of the rooms were cleaned and ready. Housekeeping issue apparently. Got the hotel room with the gracious Jasmine who checked me in. I had a room block of 5 rooms and none were ready, and I was there plus 30 other people at the same time were needing our rooms for the convention in town. I don't know who worked on Sept 29th, 2012 around 9:30 pm, but I paid for 5 rooms for two nights. Some lady at the front desk (not Jasmine), checked out one of the rooms (bus driver's room) and sold it to another person. There was one room left that was not cleaned at all and was not sold, so the bus driver had to sleep in the bus for one night. When I knew about this, I was going to scream! Properly train your staff! Look at your reservations clearly and carefully before you check out people out of the wrong room and let someone stranded for one night in a bus. I would have opted to sleep in the bus and let the bus driver sleep in my room if I knew about it earlier. Rooms were cleaned except for one room 132, complaints from my guests that not vacuumed and the sheets and blankets weren't even made. I will not be staying at this hotel unless i get comped on my next visit to New Orleans.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r142582953-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>142582953</t>
+  </si>
+  <si>
+    <t>10/11/2012</t>
+  </si>
+  <si>
+    <t>Group Trip Gone Bad!</t>
+  </si>
+  <si>
+    <t>We booked a block of rooms October 2012. The rooms were terrible. Smokey smell, dirty carpet, shower head missing, water drained slow in tub. Basically this place was a dump. Pay more money and stay far away from here.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked a block of rooms October 2012. The rooms were terrible. Smokey smell, dirty carpet, shower head missing, water drained slow in tub. Basically this place was a dump. Pay more money and stay far away from here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r140648970-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>140648970</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Welcoming staff!!</t>
+  </si>
+  <si>
+    <t>The staff at this location were awesome. Front desk were very helpful with getting a taxi and also some good places to eat. Rooms were clean and housekeeping was very curtious. Would define tly recommend to anyoneMoreShow less</t>
+  </si>
+  <si>
+    <t>The staff at this location were awesome. Front desk were very helpful with getting a taxi and also some good places to eat. Rooms were clean and housekeeping was very curtious. Would define tly recommend to anyoneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r139620685-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>139620685</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>stay away from here</t>
+  </si>
+  <si>
+    <t>i could not...this was the only hotel i could find in the area at such a short notice because of the hurricane...the hotel itself has some bad reviews about its area and clientele but that was certainly not the issue i found...the problem is the staff...i arrived at 4:15pm and waited for a half hour for someone to show up at the desk...not a soul to be found...i left to make a briefing that was scheduled for my work...when i returned at 7:15pm i was told my room wasn't ready and i'd have to wait till they found one...forty minutes later i was put into a room...the interior was fine...not the flea bag that other reviews listed it to be...by 10:30pm i was in my bed and just about falling asleep when my door was pushed open by the inept staff...i had the bar across the door so when they pushed it open the force was so strong that it sounded like the room was being broken into...the manager yells into the cracked door "who's in this room"...scares the living hell out of me...door being forced open at 10:45pm...the manager tells me he was 100% sure there was no one in the room...great customer service there...i'm 100% sure that he's an moron...even if i were positive the room was empty i'd have still knocked once just to be sure...but no, this idiot doesn't think to do that...just tries to bust...i could not...this was the only hotel i could find in the area at such a short notice because of the hurricane...the hotel itself has some bad reviews about its area and clientele but that was certainly not the issue i found...the problem is the staff...i arrived at 4:15pm and waited for a half hour for someone to show up at the desk...not a soul to be found...i left to make a briefing that was scheduled for my work...when i returned at 7:15pm i was told my room wasn't ready and i'd have to wait till they found one...forty minutes later i was put into a room...the interior was fine...not the flea bag that other reviews listed it to be...by 10:30pm i was in my bed and just about falling asleep when my door was pushed open by the inept staff...i had the bar across the door so when they pushed it open the force was so strong that it sounded like the room was being broken into...the manager yells into the cracked door "who's in this room"...scares the living hell out of me...door being forced open at 10:45pm...the manager tells me he was 100% sure there was no one in the room...great customer service there...i'm 100% sure that he's an moron...even if i were positive the room was empty i'd have still knocked once just to be sure...but no, this idiot doesn't think to do that...just tries to bust into the room...if i hadn't paid up front with a web site i would have left right then but i knew there would be no way to get a refund...the manager on duty did not apologize...he just acted like he was in the right to open a door without knocking first because his computer showed the room to be empty...didn't bother to check with the paper work on his desk left by the other front desk worker...my advice is find a different place to stay because i'm pretty sure they don't learn from their mistakes by the looks of all the negative reviews of this place...i wish i had read a few before i pushed that button to book...the manager tried to blow off all the bad reviews by saying people who enjoy their stays at hotels don't bother to write good reviews...what a crock...learn to treat your customers right and maybe you'd get some good reviews...MoreShow less</t>
+  </si>
+  <si>
+    <t>i could not...this was the only hotel i could find in the area at such a short notice because of the hurricane...the hotel itself has some bad reviews about its area and clientele but that was certainly not the issue i found...the problem is the staff...i arrived at 4:15pm and waited for a half hour for someone to show up at the desk...not a soul to be found...i left to make a briefing that was scheduled for my work...when i returned at 7:15pm i was told my room wasn't ready and i'd have to wait till they found one...forty minutes later i was put into a room...the interior was fine...not the flea bag that other reviews listed it to be...by 10:30pm i was in my bed and just about falling asleep when my door was pushed open by the inept staff...i had the bar across the door so when they pushed it open the force was so strong that it sounded like the room was being broken into...the manager yells into the cracked door "who's in this room"...scares the living hell out of me...door being forced open at 10:45pm...the manager tells me he was 100% sure there was no one in the room...great customer service there...i'm 100% sure that he's an moron...even if i were positive the room was empty i'd have still knocked once just to be sure...but no, this idiot doesn't think to do that...just tries to bust...i could not...this was the only hotel i could find in the area at such a short notice because of the hurricane...the hotel itself has some bad reviews about its area and clientele but that was certainly not the issue i found...the problem is the staff...i arrived at 4:15pm and waited for a half hour for someone to show up at the desk...not a soul to be found...i left to make a briefing that was scheduled for my work...when i returned at 7:15pm i was told my room wasn't ready and i'd have to wait till they found one...forty minutes later i was put into a room...the interior was fine...not the flea bag that other reviews listed it to be...by 10:30pm i was in my bed and just about falling asleep when my door was pushed open by the inept staff...i had the bar across the door so when they pushed it open the force was so strong that it sounded like the room was being broken into...the manager yells into the cracked door "who's in this room"...scares the living hell out of me...door being forced open at 10:45pm...the manager tells me he was 100% sure there was no one in the room...great customer service there...i'm 100% sure that he's an moron...even if i were positive the room was empty i'd have still knocked once just to be sure...but no, this idiot doesn't think to do that...just tries to bust into the room...if i hadn't paid up front with a web site i would have left right then but i knew there would be no way to get a refund...the manager on duty did not apologize...he just acted like he was in the right to open a door without knocking first because his computer showed the room to be empty...didn't bother to check with the paper work on his desk left by the other front desk worker...my advice is find a different place to stay because i'm pretty sure they don't learn from their mistakes by the looks of all the negative reviews of this place...i wish i had read a few before i pushed that button to book...the manager tried to blow off all the bad reviews by saying people who enjoy their stays at hotels don't bother to write good reviews...what a crock...learn to treat your customers right and maybe you'd get some good reviews...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r134431931-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>134431931</t>
+  </si>
+  <si>
+    <t>07/15/2012</t>
+  </si>
+  <si>
+    <t>Essence Music Festival</t>
+  </si>
+  <si>
+    <t>The staff was extremely helpful and willing to go the extra mile when it comes to their guest. The breakfast was freshly made and it tasted so good. I would not change 1 thing about this hotel it was really a nice place to stay. Really close to Bourbon and the Superdome. Staff are the friendlist.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r134238508-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>134238508</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>I've stayed in better Quality Inns...</t>
+  </si>
+  <si>
+    <t>This Quality Inn was ok, but it looked like it was situated in a rather dodgy (unsafe) area. We used it because we had a dog, and a lot of the other hotels charge a substantial premium for a dog in a hotel e.g. $25 per night plus a $100 non-refundable cleaning fee. If I hadn't already booked it online, I would have gone to a better quality inn and location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r134073337-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>134073337</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>NOT a get away place to stay</t>
+  </si>
+  <si>
+    <t>The MOTEL was not a nice place to stay at all!!...First I received an E Mail about four days before my trip stating that it was to late to cancel my reservation. I thought most HOTELS give you at least forty eight hours prior and up to four pm the day of the reservation. Nooooo not this place. Come to find, I was actually charged the full amount of the room charge the day I received that E-Mail. Seems deceitful and underhanded to me. No where did I ready you will be charged before you even arrive?!?!.....Secondly, ALL of the horrible reviews said about this place "IT'S TRUE!!!!!!" This MOTEL was off the beaten path, the carpet was dirty, water bugs in the bathroom, lighting in the room was horrible, people hanging out on the balcony, people screaming obscenities all times of the day, loud music, pool dirty (no one swam) B-B-Q pits in front of doors (like they rent rooms by the week or month?!?! etc. DO NOT STAY HERE. I grew up in a semi ruff neighborhood and I felt unsafe at this MOTEL.MoreShow less</t>
+  </si>
+  <si>
+    <t>The MOTEL was not a nice place to stay at all!!...First I received an E Mail about four days before my trip stating that it was to late to cancel my reservation. I thought most HOTELS give you at least forty eight hours prior and up to four pm the day of the reservation. Nooooo not this place. Come to find, I was actually charged the full amount of the room charge the day I received that E-Mail. Seems deceitful and underhanded to me. No where did I ready you will be charged before you even arrive?!?!.....Secondly, ALL of the horrible reviews said about this place "IT'S TRUE!!!!!!" This MOTEL was off the beaten path, the carpet was dirty, water bugs in the bathroom, lighting in the room was horrible, people hanging out on the balcony, people screaming obscenities all times of the day, loud music, pool dirty (no one swam) B-B-Q pits in front of doors (like they rent rooms by the week or month?!?! etc. DO NOT STAY HERE. I grew up in a semi ruff neighborhood and I felt unsafe at this MOTEL.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r129689225-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>129689225</t>
+  </si>
+  <si>
+    <t>05/10/2012</t>
+  </si>
+  <si>
+    <t>This hotel is trying really hard to make it!</t>
+  </si>
+  <si>
+    <t>CTIA show in town and every hotel is full. Found this hotel on Priceline at a decent price.  The hotel is not in a great location but even though my rating is low they seems to be really trying HARD. The lady on the night desk is the savior of the place. She is professional and has the ability to multitask guests' issues.I would not stay there again but it we all know that New Orleans had a horrible disaster katrina, and I can feel that this hotel is working hard to provide good accommodations to visitors.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r129553715-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>129553715</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Cockroach Alert</t>
+  </si>
+  <si>
+    <t>The carpet was filthy. The room smelled and we woke up in the morning to find 3 dead and 1 live cockroaches.  Don't believe the fake excellent reviews you will find below.  Not what you would expect from well known chain hotel.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r124938141-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>124938141</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Families...Stay clear of this place!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I got this hotel last minute at $150 per night bc our family decided to do mardi GRAS last minute. We couldn't find any other place nearby bc everything was sold out. Let me tell you how scared I was staying there!!! I had kids with me. First of all the rooms are so dim (probably so you won't see the dirt) and it smelled so bad. I don't know what the smell is but it was awful. The hotel is in an isolated area where the entrance is small dark road. Ugh! Well I decided to suck it up but guess what? @1am there is a car who pulled up in the parking lot. Music is so loud! Banging and banging for more than an hour. I was really scared. Next thing I hear two doors down and woman yelling "@&amp;$&amp;..ing " words! Can you believe that? Worst part about it was nobody did anything! Management obviously didnt do a darn thing! Terrible! Ugh! Next morning I saw three ladies of the night at breakfast. You are kidding me right?! I had kids around. Stay clear of this place unless you are planning on getting drugs and hookers... Awful management! Who ever gave this place a good review must be the manager himself and lying to you all. MoreShow less</t>
+  </si>
+  <si>
+    <t>I got this hotel last minute at $150 per night bc our family decided to do mardi GRAS last minute. We couldn't find any other place nearby bc everything was sold out. Let me tell you how scared I was staying there!!! I had kids with me. First of all the rooms are so dim (probably so you won't see the dirt) and it smelled so bad. I don't know what the smell is but it was awful. The hotel is in an isolated area where the entrance is small dark road. Ugh! Well I decided to suck it up but guess what? @1am there is a car who pulled up in the parking lot. Music is so loud! Banging and banging for more than an hour. I was really scared. Next thing I hear two doors down and woman yelling "@&amp;$&amp;..ing " words! Can you believe that? Worst part about it was nobody did anything! Management obviously didnt do a darn thing! Terrible! Ugh! Next morning I saw three ladies of the night at breakfast. You are kidding me right?! I had kids around. Stay clear of this place unless you are planning on getting drugs and hookers... Awful management! Who ever gave this place a good review must be the manager himself and lying to you all. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r118811789-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>118811789</t>
+  </si>
+  <si>
+    <t>10/01/2011</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>We visited the hotel over labor Day and while the property is a little imtimadting( isolated and the area not rebuilt since Katrina) the service was excellent. We felt safe and were assured that nothing would happen as we were traveling on motorbikes.  Breakfast was beyond our expectation, the rooms were cleaned although the carpets needs changing.  Would reccommend to those on a budget looking for a safe clean welcoming hotel.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r116025520-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>116025520</t>
+  </si>
+  <si>
+    <t>07/30/2011</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>My family and I stayed here recently and honestly, upon arrival we were not too pleased by the look of this place. But all of our doubts seemed to vanish once we arrived at the front desk to check in. The front desk girl was delightfully pleasant and helpful. Although check in time was 2pm, we arrived early and the desk clerk accommodated us efficiently. She gave us terrific directions to downtown and was overall a very spirited and humorous young lady. If you plan on staying here, just know that the rooms are mediocre but the staff is absolutely wonderful!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r115781013-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>115781013</t>
+  </si>
+  <si>
+    <t>07/25/2011</t>
+  </si>
+  <si>
+    <t>Roach motel for sure</t>
+  </si>
+  <si>
+    <t>You must be kidding me.  This gets nothing but ones all the way.  Borderline dangerous.1.  Odors can be smelled two doors down before entering room2.  Bedding will have to be sprayed with lysol to kill the germs.3.  Bad location, people selling things from there cars and ladies of the evening4.  Doors don't stay secured, so double check them when leaving room for proper closure5.  Pool had things floating in it and no one got in the water.6.  View is of closed buildings and old tires left on the next property over7.  I did not feel safe at all</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r115648370-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>115648370</t>
+  </si>
+  <si>
+    <t>07/22/2011</t>
+  </si>
+  <si>
+    <t>Good luck</t>
+  </si>
+  <si>
+    <t>we booked this motel as we did many through hotels.com.  All i  Can say is they got me again.  I will go straight to the point.  GPS could not locate it from the address that was given.  You have to drive down what looks like an alley to get to this location.  You feel like your checking into a motel where only the serious criminals go meet.  The first room had so much mold and I could smell the odor, three rooms over.  I refused both rooms that was already booked and the cancellation time had past.  The next two rooms smelled and the carpet and bed covers were stained. I was going to just deal with it for the one night but as I exited the room I found that one room would not remain closed.  Got the third set of rooms which were on the second floor which was much better, but was still dimly lit to keep you from seeing how dirty it was.  Also the pool shown on the website appeared 50 years older and barely able to hold water.MoreShow less</t>
+  </si>
+  <si>
+    <t>we booked this motel as we did many through hotels.com.  All i  Can say is they got me again.  I will go straight to the point.  GPS could not locate it from the address that was given.  You have to drive down what looks like an alley to get to this location.  You feel like your checking into a motel where only the serious criminals go meet.  The first room had so much mold and I could smell the odor, three rooms over.  I refused both rooms that was already booked and the cancellation time had past.  The next two rooms smelled and the carpet and bed covers were stained. I was going to just deal with it for the one night but as I exited the room I found that one room would not remain closed.  Got the third set of rooms which were on the second floor which was much better, but was still dimly lit to keep you from seeing how dirty it was.  Also the pool shown on the website appeared 50 years older and barely able to hold water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r115106133-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>115106133</t>
+  </si>
+  <si>
+    <t>07/06/2011</t>
+  </si>
+  <si>
+    <t>Not a good deal for the money</t>
+  </si>
+  <si>
+    <t>We stayed here after a fantastic visit at the Best Western Landmark in the French Quarter--we only moved because the rates there jumped so dramatically for the weekend. This motel is very far from downtown/the airport, and is an expensive taxi ride away from either of these locations. The motel itself is not located in a great part of town, though we personally did not experience any problems. Our room was not very clean, and there were bugs around and some stains on the beds (but, I will point out, NO bedbugs--we did check). Front desk service was efficient and courteous, and the free breakfast was surprisingly decent, but neither of these things justified the $100+ room rate (especially if you include two expensive taxi rides)...MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here after a fantastic visit at the Best Western Landmark in the French Quarter--we only moved because the rates there jumped so dramatically for the weekend. This motel is very far from downtown/the airport, and is an expensive taxi ride away from either of these locations. The motel itself is not located in a great part of town, though we personally did not experience any problems. Our room was not very clean, and there were bugs around and some stains on the beds (but, I will point out, NO bedbugs--we did check). Front desk service was efficient and courteous, and the free breakfast was surprisingly decent, but neither of these things justified the $100+ room rate (especially if you include two expensive taxi rides)...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r113810452-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>113810452</t>
+  </si>
+  <si>
+    <t>06/16/2011</t>
+  </si>
+  <si>
+    <t>Dirty, Unkempt and Unappealing</t>
+  </si>
+  <si>
+    <t>Rooms stank and were filthy. Bed linens were dirty as if they had not been washed. Appeared as if someone threw paint on the walls as quickly as possible in order to reopen for business after Katrina. We cancelled our reservation. The staff helpfully recommended a few other nicer hotels. Might be ok for an out of town construction worker, but  if your health is important to you, I would find somewhere else to stay.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r112815004-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>112815004</t>
+  </si>
+  <si>
+    <t>06/11/2011</t>
+  </si>
+  <si>
+    <t>Flat Out Stinks</t>
+  </si>
+  <si>
+    <t>I will preface this by saying that staying here was an error.. I booked through an online site and I thought I had booked the Downtown Quality Inn.. in fact, that is where I showed up and was told I had actually booked this Quality Inn on the I-10 service road. I don't hold this against the hotel.. this was my error.Unfortunately, the hotel flat out stinks.  The room reeked of smoke.. It had an almost constant headache because of it. I saw a very large roach on my last morning there.  The area around the hotel is pretty much a wasteland.. apparently quite wiped out by Katrina.  It's not far from downtown, but if you want to be out drinking and just walk to your room, obviously this doesn't work.  I will say I thought the breakfast they offered was quite good and the front desk staff seemed nice enough.  The hotel stinks and has bugs, though.. just flat out unacceptable. For the first time ever on a trip to New Orleans, I left early and came home.MoreShow less</t>
+  </si>
+  <si>
+    <t>I will preface this by saying that staying here was an error.. I booked through an online site and I thought I had booked the Downtown Quality Inn.. in fact, that is where I showed up and was told I had actually booked this Quality Inn on the I-10 service road. I don't hold this against the hotel.. this was my error.Unfortunately, the hotel flat out stinks.  The room reeked of smoke.. It had an almost constant headache because of it. I saw a very large roach on my last morning there.  The area around the hotel is pretty much a wasteland.. apparently quite wiped out by Katrina.  It's not far from downtown, but if you want to be out drinking and just walk to your room, obviously this doesn't work.  I will say I thought the breakfast they offered was quite good and the front desk staff seemed nice enough.  The hotel stinks and has bugs, though.. just flat out unacceptable. For the first time ever on a trip to New Orleans, I left early and came home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r106581228-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>106581228</t>
+  </si>
+  <si>
+    <t>05/02/2011</t>
+  </si>
+  <si>
+    <t>Nasty rooms. Bad part of town</t>
+  </si>
+  <si>
+    <t>I travel a lot and have a variety of experiences to draw from. This hotel needs a serious makeover. First thing that hits you when you walk in a room is the nasty smoke stained smell. I would not walk on the carpet barefooted. The bed spread had a big burn hole in it. The staff seems very indifferent to the low quality conditions. Maybe they live like that, but I don't. It is close to a variety of things in New Orleans. We were there for Jazz Fest. But, I would pay twice as much as the $80 per night to make sure I am safe and comfortable. Put it this way. There is a convience store around the corner. They were openly selling drugs in the parking lot. Saw it with my eyes. I realize they have no control over what happens around the corner, but they have full control over their hotel. Sad, very sadMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I travel a lot and have a variety of experiences to draw from. This hotel needs a serious makeover. First thing that hits you when you walk in a room is the nasty smoke stained smell. I would not walk on the carpet barefooted. The bed spread had a big burn hole in it. The staff seems very indifferent to the low quality conditions. Maybe they live like that, but I don't. It is close to a variety of things in New Orleans. We were there for Jazz Fest. But, I would pay twice as much as the $80 per night to make sure I am safe and comfortable. Put it this way. There is a convience store around the corner. They were openly selling drugs in the parking lot. Saw it with my eyes. I realize they have no control over what happens around the corner, but they have full control over their hotel. Sad, very sadMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r105406820-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>105406820</t>
+  </si>
+  <si>
+    <t>04/25/2011</t>
+  </si>
+  <si>
+    <t>not great</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 nights and found it to be very old and worn. Sadly the housekeeping was poor...we consistently had no coffee and/or cups and one day no towels.  The staff working the front desk were extremely unmotivated to offer any assistance and had no information on any of the events that were happening on this particular major festival weekend. Each evening was very noisy as groups gathered close by under our window to organize what turned out to be drag races down the street in the middle of the night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r105212153-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>105212153</t>
+  </si>
+  <si>
+    <t>04/23/2011</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>It was a festival weekend in New Orleans and  all the downtown hotels were booked so we got a room here.  We arrived about 1:30 and were curtly told to come back after 3.  We came back at 5:30 and were left standing in the lobby for over 30 min while they "checked to see if our room was ready".  The room was OK, nothing special.  The outside courtyards were nice to sit with a drink and read a book (while my wife took a nap).  But once the sun went down, it was like a prison lockdown - the lobby doors were locked, the side gates were locked and a security guard was on patrol.  I thought that $17 a night to park my  car myself in an empty lot across the street was a bit much.  Considering we paid approx. the same or less for much nicer hotels downtown, I would only use this as a last resort.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was a festival weekend in New Orleans and  all the downtown hotels were booked so we got a room here.  We arrived about 1:30 and were curtly told to come back after 3.  We came back at 5:30 and were left standing in the lobby for over 30 min while they "checked to see if our room was ready".  The room was OK, nothing special.  The outside courtyards were nice to sit with a drink and read a book (while my wife took a nap).  But once the sun went down, it was like a prison lockdown - the lobby doors were locked, the side gates were locked and a security guard was on patrol.  I thought that $17 a night to park my  car myself in an empty lot across the street was a bit much.  Considering we paid approx. the same or less for much nicer hotels downtown, I would only use this as a last resort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r104033627-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>104033627</t>
+  </si>
+  <si>
+    <t>04/14/2011</t>
+  </si>
+  <si>
+    <t>Awesome Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is a little hard to find tucked behind a closed business but no fault of their own.  We arrived to be welcomed by a wonderful young lady at the front desk Cindy who assisted us with planning our stay.  The beds are extremely comfortable although the carpet needed lots of attention.  The breakfast was beyond anything we expected pastries and coffee.  There were waffles, grits, pastries, fresh fruit.  We would have spent another 40 bucks for something thta was included in our room rate and to top it off although breakfast started at 6:30 they let us eat early on our day of departure.  The service made up for the outward appearance. We will tell all our friends and just 10 miles outside the city.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is a little hard to find tucked behind a closed business but no fault of their own.  We arrived to be welcomed by a wonderful young lady at the front desk Cindy who assisted us with planning our stay.  The beds are extremely comfortable although the carpet needed lots of attention.  The breakfast was beyond anything we expected pastries and coffee.  There were waffles, grits, pastries, fresh fruit.  We would have spent another 40 bucks for something thta was included in our room rate and to top it off although breakfast started at 6:30 they let us eat early on our day of departure.  The service made up for the outward appearance. We will tell all our friends and just 10 miles outside the city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r99705998-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>99705998</t>
+  </si>
+  <si>
+    <t>03/10/2011</t>
+  </si>
+  <si>
+    <t>Very impressed</t>
+  </si>
+  <si>
+    <t>This hotel went way beyond my expectations.  I wanted to get away by myself for a weekend, but was trying to save money.  This place is not in the prettiest area, but it's close enough to downtown NO.  The room was very nice, beyond what I expected.  The front desk lady who works Thursday nights is a lifesaver, and should get a raise!Only thing is that the breakfast is absolutely terrible.  Eggs tasted like plastic.  I would definitely stay here again though, I don't care about breakfast in a hotel when I'm in NO.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r62275227-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>62275227</t>
+  </si>
+  <si>
+    <t>04/23/2010</t>
+  </si>
+  <si>
+    <t>Quiet!</t>
+  </si>
+  <si>
+    <t>My hotel room was much quieter than expected, considering the city setting. I had a good sleep and didn't hear a peep from traffic outside nor from other customers staying in the hotel. It is near the French Quarter, but not exactly in it, as I thought their website stated. The room was clean and basics of breakfast, web access, etc were just fine.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r35529278-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>35529278</t>
+  </si>
+  <si>
+    <t>07/22/2009</t>
+  </si>
+  <si>
+    <t>Lived up to reviews. Great management!</t>
+  </si>
+  <si>
+    <t>For a hotel in the middle of a bustling city, this place was quiet and the staff friendly and helpful. The manger loaned us free parking tokens for before checking in and after checking out.Not a very appealing looking hotel on the outside, and construction nearby, but the place was quiet, and super close to the Quarter.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r34017886-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>34017886</t>
+  </si>
+  <si>
+    <t>07/06/2009</t>
+  </si>
+  <si>
+    <t>Not much Quality to it...</t>
+  </si>
+  <si>
+    <t>Upon check in we entered a room that had a half eaten cookie and bottle of water on the table with the iron and ironing board left sitting out in the room. After the staff discussed it with the manager? (don't know who they talked to cuz he/she never came out to apologize or say anything at all)  I was then able to get my room changed to one that had been cleaned though not very well. There was no soap in this room and dead bugs in the shower along with a bad smell along with the A/C not being on when we got into the room which probably worsened the smell because anyone whose been to New Orleans knows how hot and humid it is. I still wouldn't have complained except for that at check-out i was given a receipt with 2 nights charged though we were there only one!  Upon getting back home and checking my acct. I was charged not to my cc but to my debit card not once, not twice but a total of 4 times for 1 night!MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon check in we entered a room that had a half eaten cookie and bottle of water on the table with the iron and ironing board left sitting out in the room. After the staff discussed it with the manager? (don't know who they talked to cuz he/she never came out to apologize or say anything at all)  I was then able to get my room changed to one that had been cleaned though not very well. There was no soap in this room and dead bugs in the shower along with a bad smell along with the A/C not being on when we got into the room which probably worsened the smell because anyone whose been to New Orleans knows how hot and humid it is. I still wouldn't have complained except for that at check-out i was given a receipt with 2 nights charged though we were there only one!  Upon getting back home and checking my acct. I was charged not to my cc but to my debit card not once, not twice but a total of 4 times for 1 night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r3604776-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>3604776</t>
+  </si>
+  <si>
+    <t>06/21/2005</t>
+  </si>
+  <si>
+    <t>Will Visit This Hotel on Furture Visits</t>
+  </si>
+  <si>
+    <t>We found the La Quinta just 15 minutes from the French Quarters and was so worth it.  We got a good deal at $44.00 a night, were not bothered by the staff, and it was a quiet place even though there were kids staying there.  We had a great experience, and I would recommend this hotel to anyone.  It was the La Quinta off of the Crowder exit going I-10 East.  Loved it!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r3369199-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>3369199</t>
+  </si>
+  <si>
+    <t>04/16/2005</t>
+  </si>
+  <si>
+    <t>Great Room, Bad Neighborhood</t>
+  </si>
+  <si>
+    <t>We stayed on a Saturday night before leaving out on the Carnival Conquest. The room was spacious and clean. The breakfast was okay - the waffles were the best feature (it was fun making them!!). There was no fruit - only dry cereal, a few small muffins, juice, instant grits/oatmeal and coffee. Fortunately, there was a Wendy's and Shoney's nearby if you wanted a "real" hot meal. We ourselves had no problem with our one-night stay, but a family informed us as we were getting ready to leave to catch our ship that their car was broken into - several items were stolen out of their car overnight (we brought all our stuff into the room as we saw we were in a not-so-great neighborhood). All in all, I would say we got what we paid for, as we used one of those low-price internet services to get a cheap rate. I would think that next time - especially for a longer stay, I would either stay in the LaQuinta in Slidell or stay closer to downtown New Orleans in a nicer hotel. But for one night, it worked out for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed on a Saturday night before leaving out on the Carnival Conquest. The room was spacious and clean. The breakfast was okay - the waffles were the best feature (it was fun making them!!). There was no fruit - only dry cereal, a few small muffins, juice, instant grits/oatmeal and coffee. Fortunately, there was a Wendy's and Shoney's nearby if you wanted a "real" hot meal. We ourselves had no problem with our one-night stay, but a family informed us as we were getting ready to leave to catch our ship that their car was broken into - several items were stolen out of their car overnight (we brought all our stuff into the room as we saw we were in a not-so-great neighborhood). All in all, I would say we got what we paid for, as we used one of those low-price internet services to get a cheap rate. I would think that next time - especially for a longer stay, I would either stay in the LaQuinta in Slidell or stay closer to downtown New Orleans in a nicer hotel. But for one night, it worked out for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r2976391-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>2976391</t>
+  </si>
+  <si>
+    <t>01/03/2005</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Enjoyed a pleasant stay for 4 nights over new year's eve. The continental b'fast was better than i had expected - good waffles. The check-in staff was friendly and the room spacious and clean. We did have a leaky toilet bowl which despite repeated complaints never got fixed...a minor blemish in an otherwise great stay. The hotel is 15 minutes away from the french quarter and has a shoney's and wendy's close by if u'r looking for a quick bite. Overall Crowder is great for comfortable budget accommodation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r2318159-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>2318159</t>
+  </si>
+  <si>
+    <t>07/23/2004</t>
+  </si>
+  <si>
+    <t>Leaves alot to be desired</t>
+  </si>
+  <si>
+    <t>The stay was alright. We were able to check in early that was good. The rooms were clean. The rail on the second floor in front of our room was broken, we had no warning about it. Thank goodness it was broken to the inside or someone would have fallen off. Their continental breakfast leaves much to be desired. They had cold cereal and cold muffins and that was the extent of their continental breakfast that their website was so proud of. The service was good however, the neighborhood wasn't. The hotel was right behind a bar and coming back on Saturday night it took us 20 minutes to go 1 block because the police had it all blocked off trying to clear out the bar. Overall it was good, but I would not stay their again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The stay was alright. We were able to check in early that was good. The rooms were clean. The rail on the second floor in front of our room was broken, we had no warning about it. Thank goodness it was broken to the inside or someone would have fallen off. Their continental breakfast leaves much to be desired. They had cold cereal and cold muffins and that was the extent of their continental breakfast that their website was so proud of. The service was good however, the neighborhood wasn't. The hotel was right behind a bar and coming back on Saturday night it took us 20 minutes to go 1 block because the police had it all blocked off trying to clear out the bar. Overall it was good, but I would not stay their again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r2290571-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>2290571</t>
+  </si>
+  <si>
+    <t>07/11/2004</t>
+  </si>
+  <si>
+    <t>La Quinta Inn Crowder</t>
+  </si>
+  <si>
+    <t>Our stay at this hotel was horrible.  The room smelled musty, the pool was tiny and the pool area was cluttered with trash.  We had no towels in the room, a situation that was only remedied when I requested them for the third time in person at the front desk.  There was no response to my first two phone calls to the front desk.  I was given two bath towels (for my family of 5), and promised that more would be delivered as soon as they were available.  I'm still waiting for the towels.  Attempts to contact the hotel chain directly via internet have proven unsuccessful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r2216946-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>2216946</t>
+  </si>
+  <si>
+    <t>06/22/2004</t>
+  </si>
+  <si>
+    <t>Good deal in NO</t>
+  </si>
+  <si>
+    <t>We stayed in the LQI for 10 days in November 2003 and we were glad to found this nice room for a very good rate. The room was large and offered a lot of amenities like a huge TV with pay per view and game stadion, coffe maker and a closet with enough coathangers. The bathroom was ok for US conditions and it was nice to have a complimentary breakfirst right at the hotel (which was good for US conditions, also).
+Our first impression was that the neighbourhood is not the best but after checking other places in NO it seems to be the average situation except the Garden District where you have to pay more than four times the amount for a room and parking fees up to $20 per day.
+Since we had a car it was a 10 min drive to French Quarter and downtown and we did not have to deal with drunken tourists in the direct vicinity of our hotel as you will have it with hotels located in the French Quarter and Downtown.
+The stuff in LQI was always!! frindly and helpfull (they did not have a safe available when we arrived and so they kept our passports and tickets in an envelope at the front desk during our stay). For dinner there are several Resaurant right across the street (Shohey´s, Wendy´s a chinese restaurant) but as this motel is located directly next to...We stayed in the LQI for 10 days in November 2003 and we were glad to found this nice room for a very good rate. The room was large and offered a lot of amenities like a huge TV with pay per view and game stadion, coffe maker and a closet with enough coathangers. The bathroom was ok for US conditions and it was nice to have a complimentary breakfirst right at the hotel (which was good for US conditions, also).Our first impression was that the neighbourhood is not the best but after checking other places in NO it seems to be the average situation except the Garden District where you have to pay more than four times the amount for a room and parking fees up to $20 per day.Since we had a car it was a 10 min drive to French Quarter and downtown and we did not have to deal with drunken tourists in the direct vicinity of our hotel as you will have it with hotels located in the French Quarter and Downtown.The stuff in LQI was always!! frindly and helpfull (they did not have a safe available when we arrived and so they kept our passports and tickets in an envelope at the front desk during our stay). For dinner there are several Resaurant right across the street (Shohey´s, Wendy´s a chinese restaurant) but as this motel is located directly next to the Interstate you can reach every restaurant in New Orleans within 15 min - and we did not have to deal with noice from the interstate.So to make a conclusion we got more than we have paid for at the LQI crowderMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in the LQI for 10 days in November 2003 and we were glad to found this nice room for a very good rate. The room was large and offered a lot of amenities like a huge TV with pay per view and game stadion, coffe maker and a closet with enough coathangers. The bathroom was ok for US conditions and it was nice to have a complimentary breakfirst right at the hotel (which was good for US conditions, also).
+Our first impression was that the neighbourhood is not the best but after checking other places in NO it seems to be the average situation except the Garden District where you have to pay more than four times the amount for a room and parking fees up to $20 per day.
+Since we had a car it was a 10 min drive to French Quarter and downtown and we did not have to deal with drunken tourists in the direct vicinity of our hotel as you will have it with hotels located in the French Quarter and Downtown.
+The stuff in LQI was always!! frindly and helpfull (they did not have a safe available when we arrived and so they kept our passports and tickets in an envelope at the front desk during our stay). For dinner there are several Resaurant right across the street (Shohey´s, Wendy´s a chinese restaurant) but as this motel is located directly next to...We stayed in the LQI for 10 days in November 2003 and we were glad to found this nice room for a very good rate. The room was large and offered a lot of amenities like a huge TV with pay per view and game stadion, coffe maker and a closet with enough coathangers. The bathroom was ok for US conditions and it was nice to have a complimentary breakfirst right at the hotel (which was good for US conditions, also).Our first impression was that the neighbourhood is not the best but after checking other places in NO it seems to be the average situation except the Garden District where you have to pay more than four times the amount for a room and parking fees up to $20 per day.Since we had a car it was a 10 min drive to French Quarter and downtown and we did not have to deal with drunken tourists in the direct vicinity of our hotel as you will have it with hotels located in the French Quarter and Downtown.The stuff in LQI was always!! frindly and helpfull (they did not have a safe available when we arrived and so they kept our passports and tickets in an envelope at the front desk during our stay). For dinner there are several Resaurant right across the street (Shohey´s, Wendy´s a chinese restaurant) but as this motel is located directly next to the Interstate you can reach every restaurant in New Orleans within 15 min - and we did not have to deal with noice from the interstate.So to make a conclusion we got more than we have paid for at the LQI crowderMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r1808999-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>1808999</t>
+  </si>
+  <si>
+    <t>04/20/2004</t>
+  </si>
+  <si>
+    <t>La Quinta Inn in Slidell is fabulous!</t>
+  </si>
+  <si>
+    <t>During a recent vacation in New Orleans we looked at all the La Quinta properties in the area (we had a car so this was easily possible). The LQ Crowder is not in a pleasant neighborhood and is VERY near the noisy highway; in addition, there is too much cement/concrete --- this made the pool look very unappealing. The La Quinta Inn in Slidell, however, is terrific and we highly recommend it. The rooms (which are just fine) surround a lovely green, palm-treed courtyard which features a large pool. The lobby and breakfast area are unusually spacious, and if you want to walk to dinner, there's a Cracker Barrel nearby. The staff at the desk is remarkably friendly and helpful, and the cleaning staff remembers with unusual consistency to replace coffee, toiletries, etc. The price is very good (we got a weekly rate which was fantastic), and they have a convenient laundry room. It's only about a 30-minute drive to the French Quarter, and also just a 30-minute drive to the Gulf beaches. We are extremely pleased with our 10-day stay there, and I'm sure you would be, too!MoreShow less</t>
+  </si>
+  <si>
+    <t>During a recent vacation in New Orleans we looked at all the La Quinta properties in the area (we had a car so this was easily possible). The LQ Crowder is not in a pleasant neighborhood and is VERY near the noisy highway; in addition, there is too much cement/concrete --- this made the pool look very unappealing. The La Quinta Inn in Slidell, however, is terrific and we highly recommend it. The rooms (which are just fine) surround a lovely green, palm-treed courtyard which features a large pool. The lobby and breakfast area are unusually spacious, and if you want to walk to dinner, there's a Cracker Barrel nearby. The staff at the desk is remarkably friendly and helpful, and the cleaning staff remembers with unusual consistency to replace coffee, toiletries, etc. The price is very good (we got a weekly rate which was fantastic), and they have a convenient laundry room. It's only about a 30-minute drive to the French Quarter, and also just a 30-minute drive to the Gulf beaches. We are extremely pleased with our 10-day stay there, and I'm sure you would be, too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g60864-d93123-r1400711-Rodeway_Inn_Suites-New_Orleans_Louisiana.html</t>
+  </si>
+  <si>
+    <t>1400711</t>
+  </si>
+  <si>
+    <t>10/20/2003</t>
+  </si>
+  <si>
+    <t>This hotel was just what I expected it to be. The staff is friendly and courteous. Even though I arrived an hour and a half early before check-in time, my room was ready which made a difference for me to get a nap after coming into New Orleans on a very early flight. The continental breakfast was excellent and filling. Even though it was a few miles outside the French Quarter, it took about fifthteen minutes to get there which was not a problem. For the budget minded traveler, I would definitely recommend this hotel. I had no problems with the Shoneys being across the street and other nearby restaurants and Walgreens drug store nearby. This will be one of my next hotels of choice when visiting New Orleans again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was just what I expected it to be. The staff is friendly and courteous. Even though I arrived an hour and a half early before check-in time, my room was ready which made a difference for me to get a nap after coming into New Orleans on a very early flight. The continental breakfast was excellent and filling. Even though it was a few miles outside the French Quarter, it took about fifthteen minutes to get there which was not a problem. For the budget minded traveler, I would definitely recommend this hotel. I had no problems with the Shoneys being across the street and other nearby restaurants and Walgreens drug store nearby. This will be one of my next hotels of choice when visiting New Orleans again.More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +2633,7027 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>83</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>89</v>
+      </c>
+      <c r="O12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" t="s">
+        <v>127</v>
+      </c>
+      <c r="L18" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" t="s">
+        <v>134</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>129</v>
+      </c>
+      <c r="O19" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>137</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" t="s">
+        <v>139</v>
+      </c>
+      <c r="L20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" t="s">
+        <v>46</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" t="s">
+        <v>146</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>147</v>
+      </c>
+      <c r="O21" t="s">
+        <v>46</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" t="s">
+        <v>152</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23" t="s">
+        <v>158</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" t="s">
+        <v>163</v>
+      </c>
+      <c r="L24" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>165</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" t="s">
+        <v>170</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>165</v>
+      </c>
+      <c r="O25" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>173</v>
+      </c>
+      <c r="J26" t="s">
+        <v>174</v>
+      </c>
+      <c r="K26" t="s">
+        <v>175</v>
+      </c>
+      <c r="L26" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>177</v>
+      </c>
+      <c r="O26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" t="s">
+        <v>180</v>
+      </c>
+      <c r="K27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" t="s">
+        <v>182</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>183</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>185</v>
+      </c>
+      <c r="J28" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" t="s">
+        <v>188</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>189</v>
+      </c>
+      <c r="O28" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>192</v>
+      </c>
+      <c r="J29" t="s">
+        <v>193</v>
+      </c>
+      <c r="K29" t="s">
+        <v>194</v>
+      </c>
+      <c r="L29" t="s">
+        <v>195</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>189</v>
+      </c>
+      <c r="O29" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>197</v>
+      </c>
+      <c r="J30" t="s">
+        <v>198</v>
+      </c>
+      <c r="K30" t="s">
+        <v>199</v>
+      </c>
+      <c r="L30" t="s">
+        <v>200</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>189</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>202</v>
+      </c>
+      <c r="J31" t="s">
+        <v>203</v>
+      </c>
+      <c r="K31" t="s">
+        <v>204</v>
+      </c>
+      <c r="L31" t="s">
+        <v>205</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>208</v>
+      </c>
+      <c r="J32" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" t="s">
+        <v>210</v>
+      </c>
+      <c r="L32" t="s">
+        <v>211</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>212</v>
+      </c>
+      <c r="O32" t="s">
+        <v>34</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>215</v>
+      </c>
+      <c r="J33" t="s">
+        <v>216</v>
+      </c>
+      <c r="K33" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" t="s">
+        <v>218</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>219</v>
+      </c>
+      <c r="O33" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>222</v>
+      </c>
+      <c r="J34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" t="s">
+        <v>225</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>227</v>
+      </c>
+      <c r="J35" t="s">
+        <v>228</v>
+      </c>
+      <c r="K35" t="s">
+        <v>229</v>
+      </c>
+      <c r="L35" t="s">
+        <v>230</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>231</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>233</v>
+      </c>
+      <c r="J36" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" t="s">
+        <v>235</v>
+      </c>
+      <c r="L36" t="s">
+        <v>236</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>237</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>240</v>
+      </c>
+      <c r="J37" t="s">
+        <v>241</v>
+      </c>
+      <c r="K37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L37" t="s">
+        <v>243</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>237</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>245</v>
+      </c>
+      <c r="J38" t="s">
+        <v>246</v>
+      </c>
+      <c r="K38" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" t="s">
+        <v>248</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>237</v>
+      </c>
+      <c r="O38" t="s">
+        <v>100</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>251</v>
+      </c>
+      <c r="J39" t="s">
+        <v>252</v>
+      </c>
+      <c r="K39" t="s">
+        <v>253</v>
+      </c>
+      <c r="L39" t="s">
+        <v>254</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>237</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>255</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>256</v>
+      </c>
+      <c r="J40" t="s">
+        <v>257</v>
+      </c>
+      <c r="K40" t="s">
+        <v>258</v>
+      </c>
+      <c r="L40" t="s">
+        <v>259</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>260</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>261</v>
+      </c>
+      <c r="J41" t="s">
+        <v>262</v>
+      </c>
+      <c r="K41" t="s">
+        <v>263</v>
+      </c>
+      <c r="L41" t="s">
+        <v>264</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>265</v>
+      </c>
+      <c r="O41" t="s">
+        <v>266</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>268</v>
+      </c>
+      <c r="J42" t="s">
+        <v>269</v>
+      </c>
+      <c r="K42" t="s">
+        <v>270</v>
+      </c>
+      <c r="L42" t="s">
+        <v>271</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>272</v>
+      </c>
+      <c r="O42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" t="s">
+        <v>275</v>
+      </c>
+      <c r="K43" t="s">
+        <v>276</v>
+      </c>
+      <c r="L43" t="s">
+        <v>277</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>278</v>
+      </c>
+      <c r="O43" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>280</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>281</v>
+      </c>
+      <c r="J44" t="s">
+        <v>282</v>
+      </c>
+      <c r="K44" t="s">
+        <v>283</v>
+      </c>
+      <c r="L44" t="s">
+        <v>284</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>278</v>
+      </c>
+      <c r="O44" t="s">
+        <v>266</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>285</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>286</v>
+      </c>
+      <c r="J45" t="s">
+        <v>287</v>
+      </c>
+      <c r="K45" t="s">
+        <v>288</v>
+      </c>
+      <c r="L45" t="s">
+        <v>289</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>290</v>
+      </c>
+      <c r="O45" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>293</v>
+      </c>
+      <c r="J46" t="s">
+        <v>294</v>
+      </c>
+      <c r="K46" t="s">
+        <v>295</v>
+      </c>
+      <c r="L46" t="s">
+        <v>296</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>290</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>297</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>298</v>
+      </c>
+      <c r="J47" t="s">
+        <v>299</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>290</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>300</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>301</v>
+      </c>
+      <c r="J48" t="s">
+        <v>302</v>
+      </c>
+      <c r="K48" t="s">
+        <v>303</v>
+      </c>
+      <c r="L48" t="s">
+        <v>304</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>305</v>
+      </c>
+      <c r="O48" t="s">
+        <v>266</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>307</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>308</v>
+      </c>
+      <c r="J49" t="s">
+        <v>309</v>
+      </c>
+      <c r="K49" t="s">
+        <v>310</v>
+      </c>
+      <c r="L49" t="s">
+        <v>311</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>312</v>
+      </c>
+      <c r="O49" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>314</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>315</v>
+      </c>
+      <c r="J50" t="s">
+        <v>316</v>
+      </c>
+      <c r="K50" t="s">
+        <v>317</v>
+      </c>
+      <c r="L50" t="s">
+        <v>318</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>312</v>
+      </c>
+      <c r="O50" t="s">
+        <v>266</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>319</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>320</v>
+      </c>
+      <c r="J51" t="s">
+        <v>321</v>
+      </c>
+      <c r="K51" t="s">
+        <v>322</v>
+      </c>
+      <c r="L51" t="s">
+        <v>323</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>326</v>
+      </c>
+      <c r="J52" t="s">
+        <v>327</v>
+      </c>
+      <c r="K52" t="s">
+        <v>328</v>
+      </c>
+      <c r="L52" t="s">
+        <v>329</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>330</v>
+      </c>
+      <c r="O52" t="s">
+        <v>266</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>331</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>332</v>
+      </c>
+      <c r="J53" t="s">
+        <v>333</v>
+      </c>
+      <c r="K53" t="s">
+        <v>334</v>
+      </c>
+      <c r="L53" t="s">
+        <v>335</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>330</v>
+      </c>
+      <c r="O53" t="s">
+        <v>266</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>336</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>337</v>
+      </c>
+      <c r="J54" t="s">
+        <v>338</v>
+      </c>
+      <c r="K54" t="s">
+        <v>339</v>
+      </c>
+      <c r="L54" t="s">
+        <v>340</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>341</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>343</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>344</v>
+      </c>
+      <c r="J55" t="s">
+        <v>345</v>
+      </c>
+      <c r="K55" t="s">
+        <v>346</v>
+      </c>
+      <c r="L55" t="s">
+        <v>347</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>341</v>
+      </c>
+      <c r="O55" t="s">
+        <v>46</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>349</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>350</v>
+      </c>
+      <c r="J56" t="s">
+        <v>351</v>
+      </c>
+      <c r="K56" t="s">
+        <v>352</v>
+      </c>
+      <c r="L56" t="s">
+        <v>353</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>354</v>
+      </c>
+      <c r="O56" t="s">
+        <v>266</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>355</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>356</v>
+      </c>
+      <c r="J57" t="s">
+        <v>357</v>
+      </c>
+      <c r="K57" t="s">
+        <v>358</v>
+      </c>
+      <c r="L57" t="s">
+        <v>359</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>354</v>
+      </c>
+      <c r="O57" t="s">
+        <v>46</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>360</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>361</v>
+      </c>
+      <c r="J58" t="s">
+        <v>362</v>
+      </c>
+      <c r="K58" t="s">
+        <v>363</v>
+      </c>
+      <c r="L58" t="s">
+        <v>364</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>354</v>
+      </c>
+      <c r="O58" t="s">
+        <v>266</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>365</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>366</v>
+      </c>
+      <c r="J59" t="s">
+        <v>367</v>
+      </c>
+      <c r="K59" t="s">
+        <v>368</v>
+      </c>
+      <c r="L59" t="s">
+        <v>369</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>370</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>371</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>372</v>
+      </c>
+      <c r="J60" t="s">
+        <v>373</v>
+      </c>
+      <c r="K60" t="s">
+        <v>374</v>
+      </c>
+      <c r="L60" t="s">
+        <v>375</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>370</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>377</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>378</v>
+      </c>
+      <c r="J61" t="s">
+        <v>379</v>
+      </c>
+      <c r="K61" t="s">
+        <v>380</v>
+      </c>
+      <c r="L61" t="s">
+        <v>381</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>383</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>384</v>
+      </c>
+      <c r="J62" t="s">
+        <v>385</v>
+      </c>
+      <c r="K62" t="s">
+        <v>386</v>
+      </c>
+      <c r="L62" t="s">
+        <v>387</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>388</v>
+      </c>
+      <c r="O62" t="s">
+        <v>46</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>389</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>390</v>
+      </c>
+      <c r="J63" t="s">
+        <v>385</v>
+      </c>
+      <c r="K63" t="s">
+        <v>391</v>
+      </c>
+      <c r="L63" t="s">
+        <v>392</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>388</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>394</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>395</v>
+      </c>
+      <c r="J64" t="s">
+        <v>396</v>
+      </c>
+      <c r="K64" t="s">
+        <v>397</v>
+      </c>
+      <c r="L64" t="s">
+        <v>398</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>399</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>400</v>
+      </c>
+      <c r="J65" t="s">
+        <v>401</v>
+      </c>
+      <c r="K65" t="s">
+        <v>402</v>
+      </c>
+      <c r="L65" t="s">
+        <v>403</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>388</v>
+      </c>
+      <c r="O65" t="s">
+        <v>46</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>405</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>406</v>
+      </c>
+      <c r="J66" t="s">
+        <v>407</v>
+      </c>
+      <c r="K66" t="s">
+        <v>408</v>
+      </c>
+      <c r="L66" t="s">
+        <v>409</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>388</v>
+      </c>
+      <c r="O66" t="s">
+        <v>266</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>411</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>412</v>
+      </c>
+      <c r="J67" t="s">
+        <v>413</v>
+      </c>
+      <c r="K67" t="s">
+        <v>414</v>
+      </c>
+      <c r="L67" t="s">
+        <v>415</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>388</v>
+      </c>
+      <c r="O67" t="s">
+        <v>46</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>417</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>418</v>
+      </c>
+      <c r="J68" t="s">
+        <v>419</v>
+      </c>
+      <c r="K68" t="s">
+        <v>420</v>
+      </c>
+      <c r="L68" t="s">
+        <v>421</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>422</v>
+      </c>
+      <c r="O68" t="s">
+        <v>34</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>424</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>425</v>
+      </c>
+      <c r="J69" t="s">
+        <v>426</v>
+      </c>
+      <c r="K69" t="s">
+        <v>427</v>
+      </c>
+      <c r="L69" t="s">
+        <v>428</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>429</v>
+      </c>
+      <c r="O69" t="s">
+        <v>266</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>430</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>431</v>
+      </c>
+      <c r="J70" t="s">
+        <v>432</v>
+      </c>
+      <c r="K70" t="s">
+        <v>433</v>
+      </c>
+      <c r="L70" t="s">
+        <v>434</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>429</v>
+      </c>
+      <c r="O70" t="s">
+        <v>266</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>435</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>436</v>
+      </c>
+      <c r="J71" t="s">
+        <v>437</v>
+      </c>
+      <c r="K71" t="s">
+        <v>438</v>
+      </c>
+      <c r="L71" t="s">
+        <v>439</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>440</v>
+      </c>
+      <c r="O71" t="s">
+        <v>46</v>
+      </c>
+      <c r="P71" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>441</v>
+      </c>
+      <c r="X71" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>444</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>445</v>
+      </c>
+      <c r="J72" t="s">
+        <v>446</v>
+      </c>
+      <c r="K72" t="s">
+        <v>447</v>
+      </c>
+      <c r="L72" t="s">
+        <v>448</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>449</v>
+      </c>
+      <c r="X72" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>452</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>453</v>
+      </c>
+      <c r="J73" t="s">
+        <v>454</v>
+      </c>
+      <c r="K73" t="s">
+        <v>455</v>
+      </c>
+      <c r="L73" t="s">
+        <v>456</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>457</v>
+      </c>
+      <c r="O73" t="s">
+        <v>46</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>458</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>459</v>
+      </c>
+      <c r="J74" t="s">
+        <v>460</v>
+      </c>
+      <c r="K74" t="s">
+        <v>461</v>
+      </c>
+      <c r="L74" t="s">
+        <v>462</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>463</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>465</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>466</v>
+      </c>
+      <c r="J75" t="s">
+        <v>467</v>
+      </c>
+      <c r="K75" t="s">
+        <v>468</v>
+      </c>
+      <c r="L75" t="s">
+        <v>469</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="s">
+        <v>470</v>
+      </c>
+      <c r="O75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>472</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>473</v>
+      </c>
+      <c r="J76" t="s">
+        <v>474</v>
+      </c>
+      <c r="K76" t="s">
+        <v>475</v>
+      </c>
+      <c r="L76" t="s">
+        <v>476</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>470</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s">
+        <v>477</v>
+      </c>
+      <c r="G77" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" t="s">
+        <v>478</v>
+      </c>
+      <c r="J77" t="s">
+        <v>479</v>
+      </c>
+      <c r="K77" t="s">
+        <v>480</v>
+      </c>
+      <c r="L77" t="s">
+        <v>481</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>482</v>
+      </c>
+      <c r="O77" t="s">
+        <v>34</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>484</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" t="s">
+        <v>485</v>
+      </c>
+      <c r="J78" t="s">
+        <v>486</v>
+      </c>
+      <c r="K78" t="s">
+        <v>487</v>
+      </c>
+      <c r="L78" t="s">
+        <v>488</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>489</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>491</v>
+      </c>
+      <c r="G79" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I79" t="s">
+        <v>492</v>
+      </c>
+      <c r="J79" t="s">
+        <v>493</v>
+      </c>
+      <c r="K79" t="s">
+        <v>494</v>
+      </c>
+      <c r="L79" t="s">
+        <v>495</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>496</v>
+      </c>
+      <c r="O79" t="s">
+        <v>100</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>497</v>
+      </c>
+      <c r="X79" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" t="s">
+        <v>500</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="I80" t="s">
+        <v>501</v>
+      </c>
+      <c r="J80" t="s">
+        <v>502</v>
+      </c>
+      <c r="K80" t="s">
+        <v>503</v>
+      </c>
+      <c r="L80" t="s">
+        <v>504</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>505</v>
+      </c>
+      <c r="O80" t="s">
+        <v>34</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>506</v>
+      </c>
+      <c r="X80" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" t="s">
+        <v>508</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" t="s">
+        <v>509</v>
+      </c>
+      <c r="J81" t="s">
+        <v>510</v>
+      </c>
+      <c r="K81" t="s">
+        <v>511</v>
+      </c>
+      <c r="L81" t="s">
+        <v>512</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>505</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>513</v>
+      </c>
+      <c r="X81" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>515</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="I82" t="s">
+        <v>516</v>
+      </c>
+      <c r="J82" t="s">
+        <v>517</v>
+      </c>
+      <c r="K82" t="s">
+        <v>518</v>
+      </c>
+      <c r="L82" t="s">
+        <v>519</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>520</v>
+      </c>
+      <c r="O82" t="s">
+        <v>266</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>506</v>
+      </c>
+      <c r="X82" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>522</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="I83" t="s">
+        <v>523</v>
+      </c>
+      <c r="J83" t="s">
+        <v>524</v>
+      </c>
+      <c r="K83" t="s">
+        <v>525</v>
+      </c>
+      <c r="L83" t="s">
+        <v>526</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>505</v>
+      </c>
+      <c r="O83" t="s">
+        <v>34</v>
+      </c>
+      <c r="P83" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>513</v>
+      </c>
+      <c r="X83" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>528</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>28</v>
+      </c>
+      <c r="I84" t="s">
+        <v>529</v>
+      </c>
+      <c r="J84" t="s">
+        <v>530</v>
+      </c>
+      <c r="K84" t="s">
+        <v>531</v>
+      </c>
+      <c r="L84" t="s">
+        <v>532</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>506</v>
+      </c>
+      <c r="X84" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>534</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="I85" t="s">
+        <v>535</v>
+      </c>
+      <c r="J85" t="s">
+        <v>536</v>
+      </c>
+      <c r="K85" t="s">
+        <v>537</v>
+      </c>
+      <c r="L85" t="s">
+        <v>538</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>520</v>
+      </c>
+      <c r="O85" t="s">
+        <v>266</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>497</v>
+      </c>
+      <c r="X85" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>540</v>
+      </c>
+      <c r="G86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" t="s">
+        <v>28</v>
+      </c>
+      <c r="I86" t="s">
+        <v>541</v>
+      </c>
+      <c r="J86" t="s">
+        <v>542</v>
+      </c>
+      <c r="K86" t="s">
+        <v>543</v>
+      </c>
+      <c r="L86" t="s">
+        <v>544</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>545</v>
+      </c>
+      <c r="O86" t="s">
+        <v>34</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>546</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s">
+        <v>547</v>
+      </c>
+      <c r="J87" t="s">
+        <v>548</v>
+      </c>
+      <c r="K87" t="s">
+        <v>549</v>
+      </c>
+      <c r="L87" t="s">
+        <v>550</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>545</v>
+      </c>
+      <c r="O87" t="s">
+        <v>46</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>551</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>552</v>
+      </c>
+      <c r="J88" t="s">
+        <v>553</v>
+      </c>
+      <c r="K88" t="s">
+        <v>554</v>
+      </c>
+      <c r="L88" t="s">
+        <v>555</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>545</v>
+      </c>
+      <c r="O88" t="s">
+        <v>100</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>557</v>
+      </c>
+      <c r="G89" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>558</v>
+      </c>
+      <c r="J89" t="s">
+        <v>559</v>
+      </c>
+      <c r="K89" t="s">
+        <v>560</v>
+      </c>
+      <c r="L89" t="s">
+        <v>561</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>562</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>563</v>
+      </c>
+      <c r="J90" t="s">
+        <v>564</v>
+      </c>
+      <c r="K90" t="s">
+        <v>565</v>
+      </c>
+      <c r="L90" t="s">
+        <v>566</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>567</v>
+      </c>
+      <c r="O90" t="s">
+        <v>46</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>568</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s">
+        <v>569</v>
+      </c>
+      <c r="J91" t="s">
+        <v>570</v>
+      </c>
+      <c r="K91" t="s">
+        <v>571</v>
+      </c>
+      <c r="L91" t="s">
+        <v>572</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>574</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s">
+        <v>28</v>
+      </c>
+      <c r="I92" t="s">
+        <v>575</v>
+      </c>
+      <c r="J92" t="s">
+        <v>576</v>
+      </c>
+      <c r="K92" t="s">
+        <v>577</v>
+      </c>
+      <c r="L92" t="s">
+        <v>578</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>579</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>580</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s">
+        <v>581</v>
+      </c>
+      <c r="J93" t="s">
+        <v>582</v>
+      </c>
+      <c r="K93" t="s">
+        <v>583</v>
+      </c>
+      <c r="L93" t="s">
+        <v>584</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>585</v>
+      </c>
+      <c r="O93" t="s">
+        <v>46</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>586</v>
+      </c>
+      <c r="G94" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" t="s">
+        <v>28</v>
+      </c>
+      <c r="I94" t="s">
+        <v>587</v>
+      </c>
+      <c r="J94" t="s">
+        <v>588</v>
+      </c>
+      <c r="K94" t="s">
+        <v>589</v>
+      </c>
+      <c r="L94" t="s">
+        <v>590</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
+        <v>585</v>
+      </c>
+      <c r="O94" t="s">
+        <v>46</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>1</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>591</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s">
+        <v>592</v>
+      </c>
+      <c r="J95" t="s">
+        <v>593</v>
+      </c>
+      <c r="K95" t="s">
+        <v>594</v>
+      </c>
+      <c r="L95" t="s">
+        <v>595</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>597</v>
+      </c>
+      <c r="G96" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" t="s">
+        <v>28</v>
+      </c>
+      <c r="I96" t="s">
+        <v>598</v>
+      </c>
+      <c r="J96" t="s">
+        <v>599</v>
+      </c>
+      <c r="K96" t="s">
+        <v>600</v>
+      </c>
+      <c r="L96" t="s">
+        <v>601</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>585</v>
+      </c>
+      <c r="O96" t="s">
+        <v>34</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>2</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>603</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s">
+        <v>604</v>
+      </c>
+      <c r="J97" t="s">
+        <v>605</v>
+      </c>
+      <c r="K97" t="s">
+        <v>606</v>
+      </c>
+      <c r="L97" t="s">
+        <v>607</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>608</v>
+      </c>
+      <c r="O97" t="s">
+        <v>46</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>2</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>609</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" t="s">
+        <v>610</v>
+      </c>
+      <c r="J98" t="s">
+        <v>611</v>
+      </c>
+      <c r="K98" t="s">
+        <v>612</v>
+      </c>
+      <c r="L98" t="s">
+        <v>613</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>608</v>
+      </c>
+      <c r="O98" t="s">
+        <v>100</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>615</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" t="s">
+        <v>616</v>
+      </c>
+      <c r="J99" t="s">
+        <v>617</v>
+      </c>
+      <c r="K99" t="s">
+        <v>618</v>
+      </c>
+      <c r="L99" t="s">
+        <v>619</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="s">
+        <v>620</v>
+      </c>
+      <c r="O99" t="s">
+        <v>34</v>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>1</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>622</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" t="s">
+        <v>623</v>
+      </c>
+      <c r="J100" t="s">
+        <v>624</v>
+      </c>
+      <c r="K100" t="s">
+        <v>625</v>
+      </c>
+      <c r="L100" t="s">
+        <v>626</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>620</v>
+      </c>
+      <c r="O100" t="s">
+        <v>52</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>627</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s">
+        <v>28</v>
+      </c>
+      <c r="I101" t="s">
+        <v>628</v>
+      </c>
+      <c r="J101" t="s">
+        <v>629</v>
+      </c>
+      <c r="K101" t="s">
+        <v>630</v>
+      </c>
+      <c r="L101" t="s">
+        <v>631</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>620</v>
+      </c>
+      <c r="O101" t="s">
+        <v>52</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>2</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>633</v>
+      </c>
+      <c r="G102" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" t="s">
+        <v>634</v>
+      </c>
+      <c r="J102" t="s">
+        <v>635</v>
+      </c>
+      <c r="K102" t="s">
+        <v>636</v>
+      </c>
+      <c r="L102" t="s">
+        <v>637</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>620</v>
+      </c>
+      <c r="O102" t="s">
+        <v>34</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>639</v>
+      </c>
+      <c r="G103" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" t="s">
+        <v>640</v>
+      </c>
+      <c r="J103" t="s">
+        <v>641</v>
+      </c>
+      <c r="K103" t="s">
+        <v>642</v>
+      </c>
+      <c r="L103" t="s">
+        <v>643</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>644</v>
+      </c>
+      <c r="O103" t="s">
+        <v>100</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>645</v>
+      </c>
+      <c r="G104" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" t="s">
+        <v>28</v>
+      </c>
+      <c r="I104" t="s">
+        <v>646</v>
+      </c>
+      <c r="J104" t="s">
+        <v>647</v>
+      </c>
+      <c r="K104" t="s">
+        <v>648</v>
+      </c>
+      <c r="L104" t="s">
+        <v>649</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>650</v>
+      </c>
+      <c r="O104" t="s">
+        <v>52</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>3</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" t="s">
+        <v>651</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" t="s">
+        <v>652</v>
+      </c>
+      <c r="J105" t="s">
+        <v>653</v>
+      </c>
+      <c r="K105" t="s">
+        <v>654</v>
+      </c>
+      <c r="L105" t="s">
+        <v>655</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>656</v>
+      </c>
+      <c r="O105" t="s">
+        <v>52</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
+        <v>657</v>
+      </c>
+      <c r="G106" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" t="s">
+        <v>28</v>
+      </c>
+      <c r="I106" t="s">
+        <v>658</v>
+      </c>
+      <c r="J106" t="s">
+        <v>659</v>
+      </c>
+      <c r="K106" t="s">
+        <v>660</v>
+      </c>
+      <c r="L106" t="s">
+        <v>661</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>656</v>
+      </c>
+      <c r="O106" t="s">
+        <v>34</v>
+      </c>
+      <c r="P106" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" t="s">
+        <v>663</v>
+      </c>
+      <c r="G107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I107" t="s">
+        <v>664</v>
+      </c>
+      <c r="J107" t="s">
+        <v>665</v>
+      </c>
+      <c r="K107" t="s">
+        <v>666</v>
+      </c>
+      <c r="L107" t="s">
+        <v>667</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" t="s">
+        <v>668</v>
+      </c>
+      <c r="G108" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I108" t="s">
+        <v>669</v>
+      </c>
+      <c r="J108" t="s">
+        <v>670</v>
+      </c>
+      <c r="K108" t="s">
+        <v>671</v>
+      </c>
+      <c r="L108" t="s">
+        <v>672</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" t="s">
+        <v>674</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s">
+        <v>28</v>
+      </c>
+      <c r="I109" t="s">
+        <v>675</v>
+      </c>
+      <c r="J109" t="s">
+        <v>676</v>
+      </c>
+      <c r="K109" t="s">
+        <v>677</v>
+      </c>
+      <c r="L109" t="s">
+        <v>678</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" t="s">
+        <v>679</v>
+      </c>
+      <c r="G110" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" t="s">
+        <v>28</v>
+      </c>
+      <c r="I110" t="s">
+        <v>680</v>
+      </c>
+      <c r="J110" t="s">
+        <v>681</v>
+      </c>
+      <c r="K110" t="s">
+        <v>682</v>
+      </c>
+      <c r="L110" t="s">
+        <v>683</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="s"/>
+      <c r="O110" t="s"/>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" t="s">
+        <v>685</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s">
+        <v>28</v>
+      </c>
+      <c r="I111" t="s">
+        <v>686</v>
+      </c>
+      <c r="J111" t="s">
+        <v>687</v>
+      </c>
+      <c r="K111" t="s">
+        <v>688</v>
+      </c>
+      <c r="L111" t="s">
+        <v>689</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="s"/>
+      <c r="O111" t="s"/>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" t="s">
+        <v>690</v>
+      </c>
+      <c r="G112" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" t="s">
+        <v>28</v>
+      </c>
+      <c r="I112" t="s">
+        <v>691</v>
+      </c>
+      <c r="J112" t="s">
+        <v>692</v>
+      </c>
+      <c r="K112" t="s">
+        <v>693</v>
+      </c>
+      <c r="L112" t="s">
+        <v>694</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="s"/>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" t="s">
+        <v>696</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" t="s">
+        <v>697</v>
+      </c>
+      <c r="J113" t="s">
+        <v>698</v>
+      </c>
+      <c r="K113" t="s">
+        <v>699</v>
+      </c>
+      <c r="L113" t="s">
+        <v>700</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="s"/>
+      <c r="O113" t="s"/>
+      <c r="P113" t="s"/>
+      <c r="Q113" t="s"/>
+      <c r="R113" t="s"/>
+      <c r="S113" t="s"/>
+      <c r="T113" t="s"/>
+      <c r="U113" t="s"/>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>5145</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" t="s">
+        <v>702</v>
+      </c>
+      <c r="G114" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" t="s">
+        <v>28</v>
+      </c>
+      <c r="I114" t="s">
+        <v>703</v>
+      </c>
+      <c r="J114" t="s">
+        <v>704</v>
+      </c>
+      <c r="K114" t="s">
+        <v>688</v>
+      </c>
+      <c r="L114" t="s">
+        <v>705</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4</v>
+      </c>
+      <c r="N114" t="s"/>
+      <c r="O114" t="s"/>
+      <c r="P114" t="s"/>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="s"/>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="s"/>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>706</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +9676,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>707</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>708</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>709</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>710</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>711</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>712</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>713</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>714</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +9708,31 @@
         <v>5145</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>716</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>717</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>718</v>
       </c>
       <c r="E2" t="n">
         <v>70127</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>719</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>720</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>721</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>722</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
